--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_8.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_8.xlsx
@@ -496,28 +496,28 @@
         <v>0.00833333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>380.633941317371</v>
+        <v>305.958941322087</v>
       </c>
       <c r="I2" t="n">
-        <v>321.252929700146</v>
+        <v>219.986816410931</v>
       </c>
       <c r="J2" t="n">
-        <v>285.469947280774</v>
+        <v>172.032128026305</v>
       </c>
       <c r="K2" t="n">
-        <v>260.868063378937</v>
+        <v>143.781143146268</v>
       </c>
       <c r="L2" t="n">
-        <v>243.327424603391</v>
+        <v>125.127863454262</v>
       </c>
       <c r="M2" t="n">
-        <v>230.515949118376</v>
+        <v>111.924950718939</v>
       </c>
       <c r="N2" t="n">
-        <v>220.908326779107</v>
+        <v>102.155619670662</v>
       </c>
       <c r="O2" t="n">
-        <v>213.507079985402</v>
+        <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
@@ -543,28 +543,28 @@
         <v>0.00833333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>370.268314997684</v>
+        <v>320.230815000711</v>
       </c>
       <c r="I3" t="n">
-        <v>302.709541664996</v>
+        <v>234.886769975759</v>
       </c>
       <c r="J3" t="n">
-        <v>260.336206438901</v>
+        <v>184.516741111159</v>
       </c>
       <c r="K3" t="n">
-        <v>231.522003931267</v>
+        <v>153.477532364993</v>
       </c>
       <c r="L3" t="n">
-        <v>211.442562841871</v>
+        <v>132.784947783905</v>
       </c>
       <c r="M3" t="n">
-        <v>197.08414020971</v>
+        <v>118.233936086707</v>
       </c>
       <c r="N3" t="n">
-        <v>186.486439487899</v>
+        <v>107.566109931883</v>
       </c>
       <c r="O3" t="n">
-        <v>178.414487830406</v>
+        <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
@@ -590,28 +590,28 @@
         <v>0.00833333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>355.847103355036</v>
+        <v>330.83460335654</v>
       </c>
       <c r="I4" t="n">
-        <v>276.64457628707</v>
+        <v>242.607747121165</v>
       </c>
       <c r="J4" t="n">
-        <v>226.362807319808</v>
+        <v>188.575514578095</v>
       </c>
       <c r="K4" t="n">
-        <v>193.296123418659</v>
+        <v>154.598681934824</v>
       </c>
       <c r="L4" t="n">
-        <v>170.944975776293</v>
+        <v>132.033821271404</v>
       </c>
       <c r="M4" t="n">
-        <v>155.30882968239</v>
+        <v>116.341275831496</v>
       </c>
       <c r="N4" t="n">
-        <v>143.941314505457</v>
+        <v>104.956497497692</v>
       </c>
       <c r="O4" t="n">
-        <v>135.37479194669</v>
+        <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
@@ -637,28 +637,28 @@
         <v>0.0125</v>
       </c>
       <c r="H5" t="n">
-        <v>350.841762966168</v>
+        <v>276.166762970885</v>
       </c>
       <c r="I5" t="n">
-        <v>265.946736437144</v>
+        <v>161.41899700805</v>
       </c>
       <c r="J5" t="n">
-        <v>216.582947965064</v>
+        <v>100.959508575313</v>
       </c>
       <c r="K5" t="n">
-        <v>185.171889754022</v>
+        <v>66.9821020354688</v>
       </c>
       <c r="L5" t="n">
-        <v>164.049970000607</v>
+        <v>45.2686976209134</v>
       </c>
       <c r="M5" t="n">
-        <v>149.190830605139</v>
+        <v>30.260054230837</v>
       </c>
       <c r="N5" t="n">
-        <v>138.321446919402</v>
+        <v>19.3476709425518</v>
       </c>
       <c r="O5" t="n">
-        <v>130.09480563981</v>
+        <v>11.1067743893329</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.0125</v>
       </c>
       <c r="H6" t="n">
-        <v>343.224346281674</v>
+        <v>293.1868462847</v>
       </c>
       <c r="I6" t="n">
-        <v>251.721626006519</v>
+        <v>182.016579273066</v>
       </c>
       <c r="J6" t="n">
-        <v>197.273842489868</v>
+        <v>120.254267578413</v>
       </c>
       <c r="K6" t="n">
-        <v>162.848119894713</v>
+        <v>84.2739208470969</v>
       </c>
       <c r="L6" t="n">
-        <v>140.087416387134</v>
+        <v>61.1937751432458</v>
       </c>
       <c r="M6" t="n">
-        <v>124.344709553092</v>
+        <v>45.377526084738</v>
       </c>
       <c r="N6" t="n">
-        <v>112.974769255627</v>
+        <v>33.9876014729822</v>
       </c>
       <c r="O6" t="n">
-        <v>104.442524955083</v>
+        <v>25.4488409393044</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.0125</v>
       </c>
       <c r="H7" t="n">
-        <v>332.668573604037</v>
+        <v>307.656073605541</v>
       </c>
       <c r="I7" t="n">
-        <v>232.084556589221</v>
+        <v>197.36250145535</v>
       </c>
       <c r="J7" t="n">
-        <v>172.076569558569</v>
+        <v>133.891524453198</v>
       </c>
       <c r="K7" t="n">
-        <v>135.023467817805</v>
+        <v>96.1812803586853</v>
       </c>
       <c r="L7" t="n">
-        <v>111.042666608527</v>
+        <v>72.0802889403447</v>
       </c>
       <c r="M7" t="n">
-        <v>94.6947399052476</v>
+        <v>55.706710379565</v>
       </c>
       <c r="N7" t="n">
-        <v>82.9907881312212</v>
+        <v>43.9959144648564</v>
       </c>
       <c r="O7" t="n">
-        <v>74.2532758820862</v>
+        <v>35.2560581493574</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>287.050807899019</v>
+        <v>212.375807903736</v>
       </c>
       <c r="I8" t="n">
-        <v>179.767919176482</v>
+        <v>77.5162589672474</v>
       </c>
       <c r="J8" t="n">
-        <v>100.050397638173</v>
+        <v>-14.045689195886</v>
       </c>
       <c r="K8" t="n">
-        <v>53.3087599336789</v>
+        <v>-63.8454676587368</v>
       </c>
       <c r="L8" t="n">
-        <v>25.7601678203977</v>
+        <v>-92.347964039085</v>
       </c>
       <c r="M8" t="n">
-        <v>8.0567245171185</v>
+        <v>-110.433937714629</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.19834346635809</v>
+        <v>-122.871388609178</v>
       </c>
       <c r="O8" t="n">
-        <v>-13.1683412913344</v>
+        <v>-131.938972723872</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>284.309068664709</v>
+        <v>234.271568667736</v>
       </c>
       <c r="I9" t="n">
-        <v>175.453346960936</v>
+        <v>107.988579265978</v>
       </c>
       <c r="J9" t="n">
-        <v>94.2252136187108</v>
+        <v>18.5460497754398</v>
       </c>
       <c r="K9" t="n">
-        <v>46.2838260937278</v>
+        <v>-31.5713942997207</v>
       </c>
       <c r="L9" t="n">
-        <v>17.8339156031122</v>
+        <v>-60.6615492677588</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.533947600645998</v>
+        <v>-79.2647430206882</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.2794063575601</v>
+        <v>-92.1146861106535</v>
       </c>
       <c r="O9" t="n">
-        <v>-22.6152131091167</v>
+        <v>-101.504070488222</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>280.44365730347</v>
+        <v>255.431157304974</v>
       </c>
       <c r="I10" t="n">
-        <v>169.023528395556</v>
+        <v>135.813055843614</v>
       </c>
       <c r="J10" t="n">
-        <v>85.443527744122</v>
+        <v>48.0748494497129</v>
       </c>
       <c r="K10" t="n">
-        <v>35.8750588139051</v>
+        <v>-2.59544164514419</v>
       </c>
       <c r="L10" t="n">
-        <v>6.37218972419477</v>
+        <v>-32.3977568239551</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.6692983807168</v>
+        <v>-51.5410125284338</v>
       </c>
       <c r="N10" t="n">
-        <v>-25.8515364658283</v>
+        <v>-64.7679936149297</v>
       </c>
       <c r="O10" t="n">
-        <v>-35.4774953631028</v>
+        <v>-74.4183693074558</v>
       </c>
     </row>
     <row r="11">
@@ -1021,28 +1021,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.413467761943</v>
+        <v>48.7384677666593</v>
       </c>
       <c r="H2" t="n">
-        <v>196.900529639046</v>
+        <v>95.6344163498311</v>
       </c>
       <c r="I2" t="n">
-        <v>254.480055366507</v>
+        <v>141.042236112038</v>
       </c>
       <c r="J2" t="n">
-        <v>283.461340854662</v>
+        <v>166.374420621993</v>
       </c>
       <c r="K2" t="n">
-        <v>297.066265186449</v>
+        <v>178.86670403732</v>
       </c>
       <c r="L2" t="n">
-        <v>304.014328967341</v>
+        <v>185.423330567905</v>
       </c>
       <c r="M2" t="n">
-        <v>307.928526413252</v>
+        <v>189.175819304807</v>
       </c>
       <c r="N2" t="n">
-        <v>310.325836170511</v>
+        <v>191.49661822277</v>
       </c>
     </row>
     <row r="3">
@@ -1065,28 +1065,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>113.047841442257</v>
+        <v>63.0103414452833</v>
       </c>
       <c r="H3" t="n">
-        <v>178.357141603896</v>
+        <v>110.534369914659</v>
       </c>
       <c r="I3" t="n">
-        <v>229.346314524635</v>
+        <v>153.526849196892</v>
       </c>
       <c r="J3" t="n">
-        <v>254.115281406992</v>
+        <v>176.070809840718</v>
       </c>
       <c r="K3" t="n">
-        <v>265.181403424928</v>
+        <v>186.523788366962</v>
       </c>
       <c r="L3" t="n">
-        <v>270.582520058676</v>
+        <v>191.732315935673</v>
       </c>
       <c r="M3" t="n">
-        <v>273.506639122043</v>
+        <v>194.586309566028</v>
       </c>
       <c r="N3" t="n">
-        <v>275.233244015516</v>
+        <v>196.283890100564</v>
       </c>
     </row>
     <row r="4">
@@ -1109,28 +1109,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>98.6266297996078</v>
+        <v>73.6141298011119</v>
       </c>
       <c r="H4" t="n">
-        <v>152.292176225969</v>
+        <v>118.255347060064</v>
       </c>
       <c r="I4" t="n">
-        <v>195.372915405541</v>
+        <v>157.585622663829</v>
       </c>
       <c r="J4" t="n">
-        <v>215.889400894384</v>
+        <v>177.191959410549</v>
       </c>
       <c r="K4" t="n">
-        <v>224.683816359351</v>
+        <v>185.772661854462</v>
       </c>
       <c r="L4" t="n">
-        <v>228.807209531355</v>
+        <v>189.839655680462</v>
       </c>
       <c r="M4" t="n">
-        <v>230.961514139601</v>
+        <v>191.976697131837</v>
       </c>
       <c r="N4" t="n">
-        <v>232.1935481318</v>
+        <v>193.202523601104</v>
       </c>
     </row>
     <row r="5">
@@ -1153,28 +1153,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>93.6212894107406</v>
+        <v>18.9462894154569</v>
       </c>
       <c r="H5" t="n">
-        <v>141.594336376044</v>
+        <v>37.0665969469494</v>
       </c>
       <c r="I5" t="n">
-        <v>185.593056050798</v>
+        <v>69.9696166610458</v>
       </c>
       <c r="J5" t="n">
-        <v>207.765167229747</v>
+        <v>89.5753795111941</v>
       </c>
       <c r="K5" t="n">
-        <v>217.788810583664</v>
+        <v>99.0075382039711</v>
       </c>
       <c r="L5" t="n">
-        <v>222.689210454105</v>
+        <v>103.758434079803</v>
       </c>
       <c r="M5" t="n">
-        <v>225.341646553546</v>
+        <v>106.367870576697</v>
       </c>
       <c r="N5" t="n">
-        <v>226.913561824919</v>
+        <v>107.925530574442</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>86.0038727262462</v>
+        <v>35.9663727292728</v>
       </c>
       <c r="H6" t="n">
-        <v>127.369225945419</v>
+        <v>57.6641792119662</v>
       </c>
       <c r="I6" t="n">
-        <v>166.283950575601</v>
+        <v>89.2643756641462</v>
       </c>
       <c r="J6" t="n">
-        <v>185.441397370438</v>
+        <v>106.867198322822</v>
       </c>
       <c r="K6" t="n">
-        <v>193.826256970192</v>
+        <v>114.932615726303</v>
       </c>
       <c r="L6" t="n">
-        <v>197.843089402058</v>
+        <v>118.875905933704</v>
       </c>
       <c r="M6" t="n">
-        <v>199.994968889772</v>
+        <v>121.007801107127</v>
       </c>
       <c r="N6" t="n">
-        <v>201.261281140192</v>
+        <v>122.267597124414</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>75.4481000486094</v>
+        <v>50.4356000501135</v>
       </c>
       <c r="H7" t="n">
-        <v>107.732156528121</v>
+        <v>73.0101013942496</v>
       </c>
       <c r="I7" t="n">
-        <v>141.086677644302</v>
+        <v>102.901632538931</v>
       </c>
       <c r="J7" t="n">
-        <v>157.61674529353</v>
+        <v>118.774557834411</v>
       </c>
       <c r="K7" t="n">
-        <v>164.781507191585</v>
+        <v>125.819129523402</v>
       </c>
       <c r="L7" t="n">
-        <v>168.193119754213</v>
+        <v>129.205090228531</v>
       </c>
       <c r="M7" t="n">
-        <v>170.010987765366</v>
+        <v>131.016114099001</v>
       </c>
       <c r="N7" t="n">
-        <v>171.072032067195</v>
+        <v>132.074814334467</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>-0.00416666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>29.8303343435916</v>
+        <v>-44.8446656516921</v>
       </c>
       <c r="H8" t="n">
-        <v>55.4155191153822</v>
+        <v>-46.8361410938528</v>
       </c>
       <c r="I8" t="n">
-        <v>69.0605057239065</v>
+        <v>-45.0355811101528</v>
       </c>
       <c r="J8" t="n">
-        <v>75.9020374094042</v>
+        <v>-41.2521901830115</v>
       </c>
       <c r="K8" t="n">
-        <v>79.4990084034554</v>
+        <v>-38.6091234560273</v>
       </c>
       <c r="L8" t="n">
-        <v>81.5551043660841</v>
+        <v>-36.9355578656631</v>
       </c>
       <c r="M8" t="n">
-        <v>82.8218561677867</v>
+        <v>-35.8511889750334</v>
       </c>
       <c r="N8" t="n">
-        <v>83.6504148937748</v>
+        <v>-35.1202165387623</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>-0.00416666666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>27.0885951092812</v>
+        <v>-22.9489048876922</v>
       </c>
       <c r="H9" t="n">
-        <v>51.1009468998355</v>
+        <v>-16.3638207951224</v>
       </c>
       <c r="I9" t="n">
-        <v>63.235321704444</v>
+        <v>-12.443842138827</v>
       </c>
       <c r="J9" t="n">
-        <v>68.8771035694531</v>
+        <v>-8.9781168239954</v>
       </c>
       <c r="K9" t="n">
-        <v>71.5727561861699</v>
+        <v>-6.92270868470105</v>
       </c>
       <c r="L9" t="n">
-        <v>72.9644322483196</v>
+        <v>-5.76636317172253</v>
       </c>
       <c r="M9" t="n">
-        <v>73.7407932765848</v>
+        <v>-5.09448647650869</v>
       </c>
       <c r="N9" t="n">
-        <v>74.2035430759925</v>
+        <v>-4.68531430311303</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>-0.00416666666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>23.2231837480419</v>
+        <v>-1.78931625045402</v>
       </c>
       <c r="H10" t="n">
-        <v>44.6711283344554</v>
+        <v>11.4606557825138</v>
       </c>
       <c r="I10" t="n">
-        <v>54.4536358298552</v>
+        <v>17.0849575354461</v>
       </c>
       <c r="J10" t="n">
-        <v>58.4683362896304</v>
+        <v>19.9978358305811</v>
       </c>
       <c r="K10" t="n">
-        <v>60.1110303072525</v>
+        <v>21.3410837591026</v>
       </c>
       <c r="L10" t="n">
-        <v>60.8290814682488</v>
+        <v>21.9573673205318</v>
       </c>
       <c r="M10" t="n">
-        <v>61.1686631683165</v>
+        <v>22.2522060192151</v>
       </c>
       <c r="N10" t="n">
-        <v>61.3412608220064</v>
+        <v>22.4003868776534</v>
       </c>
     </row>
     <row r="11">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.479796440991113</v>
+        <v>0.189481292421914</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58340755419517</v>
+        <v>0.769059674785861</v>
       </c>
       <c r="I2" t="n">
-        <v>8.21171161456527</v>
+        <v>4.55123356035671</v>
       </c>
       <c r="J2" t="n">
-        <v>12.5462691793707</v>
+        <v>7.36389046700948</v>
       </c>
       <c r="K2" t="n">
-        <v>5.52796193522837</v>
+        <v>3.3284436749406</v>
       </c>
       <c r="L2" t="n">
-        <v>4.13634055052738</v>
+        <v>2.52282201252514</v>
       </c>
       <c r="M2" t="n">
-        <v>3.53858676155493</v>
+        <v>2.17392996224038</v>
       </c>
       <c r="N2" t="n">
-        <v>3.20522436352306</v>
+        <v>1.97788760946944</v>
       </c>
     </row>
     <row r="3">
@@ -1563,28 +1563,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.439497835765769</v>
+        <v>0.244966275717961</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43428789083492</v>
+        <v>0.888880068742929</v>
       </c>
       <c r="I3" t="n">
-        <v>7.40068133051637</v>
+        <v>4.95409437443739</v>
       </c>
       <c r="J3" t="n">
-        <v>11.2473846116403</v>
+        <v>7.79306189772123</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9346320193691</v>
+        <v>3.47093064054248</v>
       </c>
       <c r="L3" t="n">
-        <v>3.68147598103122</v>
+        <v>2.60866044026644</v>
       </c>
       <c r="M3" t="n">
-        <v>3.14302472612032</v>
+        <v>2.23610506967484</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84276781545606</v>
+        <v>2.02733331675203</v>
       </c>
     </row>
     <row r="4">
@@ -1607,28 +1607,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.383432268964994</v>
+        <v>0.286190787162395</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22468224297352</v>
+        <v>0.950969559107504</v>
       </c>
       <c r="I4" t="n">
-        <v>6.30440777096085</v>
+        <v>5.08506525610956</v>
       </c>
       <c r="J4" t="n">
-        <v>9.5554706981464</v>
+        <v>7.8426850465112</v>
       </c>
       <c r="K4" t="n">
-        <v>4.18103207887568</v>
+        <v>3.45695329186225</v>
       </c>
       <c r="L4" t="n">
-        <v>3.11309188041341</v>
+        <v>2.58290939297669</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65411381622454</v>
+        <v>2.20611648719442</v>
       </c>
       <c r="N4" t="n">
-        <v>2.39822899281897</v>
+        <v>1.99550718490658</v>
       </c>
     </row>
     <row r="5">
@@ -1651,28 +1651,28 @@
         <v>0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.363972929979722</v>
+        <v>0.0736577814105229</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13865382820494</v>
+        <v>0.298077053026213</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98882553589534</v>
+        <v>2.25782060984969</v>
       </c>
       <c r="J5" t="n">
-        <v>9.19588437104686</v>
+        <v>3.96469169236008</v>
       </c>
       <c r="K5" t="n">
-        <v>4.05272626317745</v>
+        <v>1.84238322095816</v>
       </c>
       <c r="L5" t="n">
-        <v>3.02985196288295</v>
+        <v>1.41171049338801</v>
       </c>
       <c r="M5" t="n">
-        <v>2.58953263151475</v>
+        <v>1.22233540056095</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34369424650612</v>
+        <v>1.11471717699097</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.334358581715749</v>
+        <v>0.139827021667941</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02426029479798</v>
+        <v>0.463715852557997</v>
       </c>
       <c r="I6" t="n">
-        <v>5.36574800052945</v>
+        <v>2.88043520484341</v>
       </c>
       <c r="J6" t="n">
-        <v>8.20781303508003</v>
+        <v>4.73004407782991</v>
       </c>
       <c r="K6" t="n">
-        <v>3.60681873421921</v>
+        <v>2.138725258664</v>
       </c>
       <c r="L6" t="n">
-        <v>2.69180204799905</v>
+        <v>1.61739491643198</v>
       </c>
       <c r="M6" t="n">
-        <v>2.29825913673609</v>
+        <v>1.39057140314404</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07874268447941</v>
+        <v>1.26285031890565</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.293320741563565</v>
+        <v>0.196079259760966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.866345615164543</v>
+        <v>0.587122575506193</v>
       </c>
       <c r="I7" t="n">
-        <v>4.55266762577349</v>
+        <v>3.32049020447076</v>
       </c>
       <c r="J7" t="n">
-        <v>6.97626740798793</v>
+        <v>5.25707516149548</v>
       </c>
       <c r="K7" t="n">
-        <v>3.06633908368197</v>
+        <v>2.34130710968613</v>
       </c>
       <c r="L7" t="n">
-        <v>2.28839220809818</v>
+        <v>1.75793113391123</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9536956761779</v>
+        <v>1.50558278020306</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76693069409114</v>
+        <v>1.36414491921329</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>-0.5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.115971850651164</v>
+        <v>-0.174343297918035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.44563288756915</v>
+        <v>-0.376640427292437</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22848488516712</v>
+        <v>-1.45323453320661</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35949653568213</v>
+        <v>-1.82586126458783</v>
       </c>
       <c r="K8" t="n">
-        <v>1.47935845918714</v>
+        <v>-0.718458437828665</v>
       </c>
       <c r="L8" t="n">
-        <v>1.10961771584183</v>
+        <v>-0.50253567414089</v>
       </c>
       <c r="M8" t="n">
-        <v>0.951754380201275</v>
+        <v>-0.41198697688308</v>
       </c>
       <c r="N8" t="n">
-        <v>0.863989770059041</v>
+        <v>-0.362741868648007</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>-0.5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.105312748767038</v>
+        <v>-0.0892188112807706</v>
       </c>
       <c r="H9" t="n">
-        <v>0.410936555102492</v>
+        <v>-0.131592319787009</v>
       </c>
       <c r="I9" t="n">
-        <v>2.04051443223435</v>
+        <v>-0.401545193292471</v>
       </c>
       <c r="J9" t="n">
-        <v>3.04856626682234</v>
+        <v>-0.397380009768025</v>
       </c>
       <c r="K9" t="n">
-        <v>1.33186267901609</v>
+        <v>-0.12882132568531</v>
       </c>
       <c r="L9" t="n">
-        <v>0.99273524665791</v>
+        <v>-0.078455650091499</v>
       </c>
       <c r="M9" t="n">
-        <v>0.847398576268612</v>
+        <v>-0.0585437231576946</v>
       </c>
       <c r="N9" t="n">
-        <v>0.766417024962825</v>
+        <v>-0.0483926305989214</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>-0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0902851294340598</v>
+        <v>-0.006956352368539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.359230125936503</v>
+        <v>0.0921627228496002</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75714184420199</v>
+        <v>0.551307425747447</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58786430399264</v>
+        <v>0.885123278464898</v>
       </c>
       <c r="K10" t="n">
-        <v>1.11857698556682</v>
+        <v>0.397125868879107</v>
       </c>
       <c r="L10" t="n">
-        <v>0.827624793815165</v>
+        <v>0.298746276661509</v>
       </c>
       <c r="M10" t="n">
-        <v>0.702924877505283</v>
+        <v>0.255713111585231</v>
       </c>
       <c r="N10" t="n">
-        <v>0.633567949424253</v>
+        <v>0.231364125715743</v>
       </c>
     </row>
     <row r="11">
@@ -1981,236 +1981,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.68325240473443</v>
+        <v>0.664750327164852</v>
       </c>
       <c r="B2" t="n">
-        <v>5.55501113715647</v>
+        <v>2.69806408795674</v>
       </c>
       <c r="C2" t="n">
-        <v>28.8088492145747</v>
+        <v>15.9669271809383</v>
       </c>
       <c r="D2" t="n">
-        <v>44.0156198803739</v>
+        <v>25.8344691160896</v>
       </c>
       <c r="E2" t="n">
-        <v>19.393547816929</v>
+        <v>11.6770578962478</v>
       </c>
       <c r="F2" t="n">
-        <v>14.5113731233465</v>
+        <v>8.85072471677325</v>
       </c>
       <c r="G2" t="n">
-        <v>12.4142952445515</v>
+        <v>7.62671942523458</v>
       </c>
       <c r="H2" t="n">
-        <v>11.2447720672307</v>
+        <v>6.93895116865931</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.98336682515714</v>
+        <v>1.10548436193037</v>
       </c>
       <c r="B3" t="n">
-        <v>6.47265763083912</v>
+        <v>4.01133998035818</v>
       </c>
       <c r="C3" t="n">
-        <v>33.3978114111323</v>
+        <v>22.3568482739773</v>
       </c>
       <c r="D3" t="n">
-        <v>50.7572226599068</v>
+        <v>35.1685473203877</v>
       </c>
       <c r="E3" t="n">
-        <v>22.2690185141001</v>
+        <v>15.663623628268</v>
       </c>
       <c r="F3" t="n">
-        <v>16.6137731160105</v>
+        <v>11.7723687223837</v>
       </c>
       <c r="G3" t="n">
-        <v>14.1838490776049</v>
+        <v>10.0911000051486</v>
       </c>
       <c r="H3" t="n">
-        <v>12.828849013502</v>
+        <v>9.14895436737653</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.40665575369203</v>
+        <v>1.79630865820767</v>
       </c>
       <c r="B4" t="n">
-        <v>7.68685581537683</v>
+        <v>5.96886737569027</v>
       </c>
       <c r="C4" t="n">
-        <v>39.5703243145373</v>
+        <v>31.91698390318</v>
       </c>
       <c r="D4" t="n">
-        <v>59.9759863639155</v>
+        <v>49.2254946161139</v>
       </c>
       <c r="E4" t="n">
-        <v>26.2427180063861</v>
+        <v>21.6979560759516</v>
       </c>
       <c r="F4" t="n">
-        <v>19.5396712592619</v>
+        <v>16.2119212570501</v>
       </c>
       <c r="G4" t="n">
-        <v>16.6588438266093</v>
+        <v>13.8469382129808</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0527539578724</v>
+        <v>12.5250252438395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.78885623712373</v>
+        <v>0.362013685183267</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5962623446274</v>
+        <v>1.46499080434116</v>
       </c>
       <c r="C5" t="n">
-        <v>29.4339139823644</v>
+        <v>11.0967496414119</v>
       </c>
       <c r="D5" t="n">
-        <v>45.1959850803529</v>
+        <v>19.4856893960386</v>
       </c>
       <c r="E5" t="n">
-        <v>19.9183622079918</v>
+        <v>9.05495558740245</v>
       </c>
       <c r="F5" t="n">
-        <v>14.8911337490585</v>
+        <v>6.93828280375373</v>
       </c>
       <c r="G5" t="n">
-        <v>12.7270497819129</v>
+        <v>6.0075410148563</v>
       </c>
       <c r="H5" t="n">
-        <v>11.5188018817967</v>
+        <v>5.47861835439343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.04496072344573</v>
+        <v>0.855191949672832</v>
       </c>
       <c r="B6" t="n">
-        <v>6.264448373655</v>
+        <v>2.83611893690357</v>
       </c>
       <c r="C6" t="n">
-        <v>32.8172941058787</v>
+        <v>17.6169453468455</v>
       </c>
       <c r="D6" t="n">
-        <v>50.199564778612</v>
+        <v>28.9292839731939</v>
       </c>
       <c r="E6" t="n">
-        <v>22.0595583646093</v>
+        <v>13.0805948804011</v>
       </c>
       <c r="F6" t="n">
-        <v>16.4632516240559</v>
+        <v>9.8921016515617</v>
       </c>
       <c r="G6" t="n">
-        <v>14.0563153570292</v>
+        <v>8.50483300887394</v>
       </c>
       <c r="H6" t="n">
-        <v>12.7137372161856</v>
+        <v>7.72368182835648</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.349678485764</v>
+        <v>1.57071475992103</v>
       </c>
       <c r="B7" t="n">
-        <v>6.93995808934966</v>
+        <v>4.70321081563982</v>
       </c>
       <c r="C7" t="n">
-        <v>36.4696513314796</v>
+        <v>26.5991567935003</v>
       </c>
       <c r="D7" t="n">
-        <v>55.8841674547367</v>
+        <v>42.1123863902866</v>
       </c>
       <c r="E7" t="n">
-        <v>24.5632509197222</v>
+        <v>18.7553014998894</v>
       </c>
       <c r="F7" t="n">
-        <v>18.3314207842783</v>
+        <v>14.0821032388901</v>
       </c>
       <c r="G7" t="n">
-        <v>15.6502969192533</v>
+        <v>12.0606386316982</v>
       </c>
       <c r="H7" t="n">
-        <v>14.1541952185549</v>
+        <v>10.9276348854624</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.37283924803177</v>
+        <v>-2.06382256271059</v>
       </c>
       <c r="B8" t="n">
-        <v>5.27526563414826</v>
+        <v>-4.45855402047364</v>
       </c>
       <c r="C8" t="n">
-        <v>26.3801215279848</v>
+        <v>-17.2029453059448</v>
       </c>
       <c r="D8" t="n">
-        <v>39.7686910393796</v>
+        <v>-21.6139864235403</v>
       </c>
       <c r="E8" t="n">
-        <v>17.5121923404395</v>
+        <v>-8.5048909368326</v>
       </c>
       <c r="F8" t="n">
-        <v>13.1353146652898</v>
+        <v>-5.94886339334101</v>
       </c>
       <c r="G8" t="n">
-        <v>11.2665768485204</v>
+        <v>-4.87697564855041</v>
       </c>
       <c r="H8" t="n">
-        <v>10.2276462742909</v>
+        <v>-4.2940271401056</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.78173987806224</v>
+        <v>-1.50945365868195</v>
       </c>
       <c r="B9" t="n">
-        <v>6.95245405852326</v>
+        <v>-2.22635233204186</v>
       </c>
       <c r="C9" t="n">
-        <v>34.522562351078</v>
+        <v>-6.79356575637438</v>
       </c>
       <c r="D9" t="n">
-        <v>51.5773460678372</v>
+        <v>-6.72309685615253</v>
       </c>
       <c r="E9" t="n">
-        <v>22.5331963612038</v>
+        <v>-2.17947110682768</v>
       </c>
       <c r="F9" t="n">
-        <v>16.7956491311523</v>
+        <v>-1.32735648878129</v>
       </c>
       <c r="G9" t="n">
-        <v>14.33676220237</v>
+        <v>-0.990475392405185</v>
       </c>
       <c r="H9" t="n">
-        <v>12.9666711066752</v>
+        <v>-0.818733541303412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.59869100450882</v>
+        <v>-0.200225778460215</v>
       </c>
       <c r="B10" t="n">
-        <v>10.3397769120059</v>
+        <v>2.65273406951492</v>
       </c>
       <c r="C10" t="n">
-        <v>50.5760885850947</v>
+        <v>15.8683678806172</v>
       </c>
       <c r="D10" t="n">
-        <v>74.4869031016545</v>
+        <v>25.4766417908058</v>
       </c>
       <c r="E10" t="n">
-        <v>32.196176363308</v>
+        <v>11.4305360094501</v>
       </c>
       <c r="F10" t="n">
-        <v>23.8216539121953</v>
+        <v>8.59886081636264</v>
       </c>
       <c r="G10" t="n">
-        <v>20.2323967132657</v>
+        <v>7.36023049395785</v>
       </c>
       <c r="H10" t="n">
-        <v>18.2360854022632</v>
+        <v>6.65938982457425</v>
       </c>
     </row>
     <row r="11">
@@ -2281,236 +2281,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.954420584817061</v>
+        <v>0.376919940363971</v>
       </c>
       <c r="B2" t="n">
-        <v>3.14974567288776</v>
+        <v>1.52982873956319</v>
       </c>
       <c r="C2" t="n">
-        <v>16.3348994113685</v>
+        <v>9.05340395468908</v>
       </c>
       <c r="D2" t="n">
-        <v>24.9572871835225</v>
+        <v>14.6483967899673</v>
       </c>
       <c r="E2" t="n">
-        <v>10.9963313862198</v>
+        <v>6.62100609209457</v>
       </c>
       <c r="F2" t="n">
-        <v>8.22809056082596</v>
+        <v>5.0184475224738</v>
       </c>
       <c r="G2" t="n">
-        <v>7.0390268827603</v>
+        <v>4.32442454476486</v>
       </c>
       <c r="H2" t="n">
-        <v>6.37589579694325</v>
+        <v>3.93445321318506</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0314105539351</v>
+        <v>0.574885202093093</v>
       </c>
       <c r="B3" t="n">
-        <v>3.36597713936611</v>
+        <v>2.08601774451656</v>
       </c>
       <c r="C3" t="n">
-        <v>17.3678689846226</v>
+        <v>11.62623523295</v>
       </c>
       <c r="D3" t="n">
-        <v>26.395286275757</v>
+        <v>18.2887050507866</v>
       </c>
       <c r="E3" t="n">
-        <v>11.5805611094657</v>
+        <v>8.14555659505041</v>
       </c>
       <c r="F3" t="n">
-        <v>8.63966297872253</v>
+        <v>6.12198671020934</v>
       </c>
       <c r="G3" t="n">
-        <v>7.37602920876994</v>
+        <v>5.2476762816179</v>
       </c>
       <c r="H3" t="n">
-        <v>6.67138831785071</v>
+        <v>4.75773214127205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.11252308766546</v>
+        <v>0.830378358750979</v>
       </c>
       <c r="B4" t="n">
-        <v>3.55339751148163</v>
+        <v>2.75922418587761</v>
       </c>
       <c r="C4" t="n">
-        <v>18.2921464022419</v>
+        <v>14.7542420333533</v>
       </c>
       <c r="D4" t="n">
-        <v>27.7250576585384</v>
+        <v>22.7554352873961</v>
       </c>
       <c r="E4" t="n">
-        <v>12.131203068993</v>
+        <v>10.0302991205181</v>
       </c>
       <c r="F4" t="n">
-        <v>9.03259029380227</v>
+        <v>7.49427360610821</v>
       </c>
       <c r="G4" t="n">
-        <v>7.70087219266162</v>
+        <v>6.40101453304465</v>
       </c>
       <c r="H4" t="n">
-        <v>6.95842614191494</v>
+        <v>5.78993474076529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.722860010058567</v>
+        <v>0.146286331278177</v>
       </c>
       <c r="B5" t="n">
-        <v>2.26139707080773</v>
+        <v>0.591989029406007</v>
       </c>
       <c r="C5" t="n">
-        <v>11.8939682886788</v>
+        <v>4.48409234400293</v>
       </c>
       <c r="D5" t="n">
-        <v>18.2632732311238</v>
+        <v>7.87398413606802</v>
       </c>
       <c r="E5" t="n">
-        <v>8.0488231570636</v>
+        <v>3.65902253694458</v>
       </c>
       <c r="F5" t="n">
-        <v>6.01736733687189</v>
+        <v>2.80369493826669</v>
       </c>
       <c r="G5" t="n">
-        <v>5.14288132408097</v>
+        <v>2.42759091999963</v>
       </c>
       <c r="H5" t="n">
-        <v>4.65463969174303</v>
+        <v>2.21385823889992</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.788455284399122</v>
+        <v>0.329727903408814</v>
       </c>
       <c r="B6" t="n">
-        <v>2.41532141298598</v>
+        <v>1.09349433333768</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6530395722521</v>
+        <v>6.79239141096368</v>
       </c>
       <c r="D6" t="n">
-        <v>19.3549497897156</v>
+        <v>11.1539779522581</v>
       </c>
       <c r="E6" t="n">
-        <v>8.50528578112741</v>
+        <v>5.04335561964157</v>
       </c>
       <c r="F6" t="n">
-        <v>6.34757313065029</v>
+        <v>3.8139998150405</v>
       </c>
       <c r="G6" t="n">
-        <v>5.41955451533361</v>
+        <v>3.27912436258421</v>
       </c>
       <c r="H6" t="n">
-        <v>4.90190993774816</v>
+        <v>2.97794362638121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.842600609710201</v>
+        <v>0.563262260095954</v>
       </c>
       <c r="B7" t="n">
-        <v>2.4886864108763</v>
+        <v>1.68658321760356</v>
       </c>
       <c r="C7" t="n">
-        <v>13.0781086152863</v>
+        <v>9.53852446952681</v>
       </c>
       <c r="D7" t="n">
-        <v>20.0402028855439</v>
+        <v>15.1016075875033</v>
       </c>
       <c r="E7" t="n">
-        <v>8.80844350698171</v>
+        <v>6.72569824971903</v>
       </c>
       <c r="F7" t="n">
-        <v>6.57369355989352</v>
+        <v>5.0498776096308</v>
       </c>
       <c r="G7" t="n">
-        <v>5.61223580426185</v>
+        <v>4.32497532157426</v>
       </c>
       <c r="H7" t="n">
-        <v>5.07572997470491</v>
+        <v>3.91867733094864</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7486984814499</v>
+        <v>-1.12553659934969</v>
       </c>
       <c r="B8" t="n">
-        <v>2.87694526157679</v>
+        <v>-2.43153932944209</v>
       </c>
       <c r="C8" t="n">
-        <v>14.3867950721707</v>
+        <v>-9.38188432876773</v>
       </c>
       <c r="D8" t="n">
-        <v>21.6884523319985</v>
+        <v>-11.7875117837605</v>
       </c>
       <c r="E8" t="n">
-        <v>9.55053683884935</v>
+        <v>-4.63826987641325</v>
       </c>
       <c r="F8" t="n">
-        <v>7.16354092976912</v>
+        <v>-3.24430190594627</v>
       </c>
       <c r="G8" t="n">
-        <v>6.14439672359265</v>
+        <v>-2.65973184214597</v>
       </c>
       <c r="H8" t="n">
-        <v>5.57780034723419</v>
+        <v>-2.3418121267373</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.02319740304288</v>
+        <v>-0.866831955996102</v>
       </c>
       <c r="B9" t="n">
-        <v>3.99257659608124</v>
+        <v>-1.27852440889473</v>
       </c>
       <c r="C9" t="n">
-        <v>19.825226217884</v>
+        <v>-3.90133202096995</v>
       </c>
       <c r="D9" t="n">
-        <v>29.6192543043096</v>
+        <v>-3.86086393884973</v>
       </c>
       <c r="E9" t="n">
-        <v>12.9401088693787</v>
+        <v>-1.25160198970143</v>
       </c>
       <c r="F9" t="n">
-        <v>9.64521521070995</v>
+        <v>-0.762259255099689</v>
       </c>
       <c r="G9" t="n">
-        <v>8.23315346652183</v>
+        <v>-0.568798993481057</v>
       </c>
       <c r="H9" t="n">
-        <v>7.44635306523555</v>
+        <v>-0.470173027814158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.769613707906</v>
+        <v>-0.136346445816215</v>
       </c>
       <c r="B10" t="n">
-        <v>7.04101061974243</v>
+        <v>1.80641506231333</v>
       </c>
       <c r="C10" t="n">
-        <v>34.4404700278587</v>
+        <v>10.8057792461337</v>
       </c>
       <c r="D10" t="n">
-        <v>50.7228618406167</v>
+        <v>17.3486630254228</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9244207702324</v>
+        <v>7.78377774654258</v>
       </c>
       <c r="F10" t="n">
-        <v>16.2216766960262</v>
+        <v>5.85551031138744</v>
       </c>
       <c r="G10" t="n">
-        <v>13.7775235707004</v>
+        <v>5.0120482784822</v>
       </c>
       <c r="H10" t="n">
-        <v>12.4181084439815</v>
+        <v>4.53480136707665</v>
       </c>
     </row>
     <row r="11">
@@ -2581,236 +2581,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.241860356829026</v>
+        <v>0.0955155334268893</v>
       </c>
       <c r="B2" t="n">
-        <v>0.798179151292436</v>
+        <v>0.3876749210192</v>
       </c>
       <c r="C2" t="n">
-        <v>4.13943775233755</v>
+        <v>2.29422913318463</v>
       </c>
       <c r="D2" t="n">
-        <v>6.32444278729405</v>
+        <v>3.71205999844789</v>
       </c>
       <c r="E2" t="n">
-        <v>2.78658766919943</v>
+        <v>1.67783356884333</v>
       </c>
       <c r="F2" t="n">
-        <v>2.08508591570701</v>
+        <v>1.27172813309124</v>
       </c>
       <c r="G2" t="n">
-        <v>1.78376449615222</v>
+        <v>1.09585530751886</v>
       </c>
       <c r="H2" t="n">
-        <v>1.61572000550361</v>
+        <v>0.997032412340984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.19454683940727</v>
+        <v>0.108436062305659</v>
       </c>
       <c r="B3" t="n">
-        <v>0.634897724754136</v>
+        <v>0.39346907746371</v>
       </c>
       <c r="C3" t="n">
-        <v>3.27596416897872</v>
+        <v>2.1929650711313</v>
       </c>
       <c r="D3" t="n">
-        <v>4.97873470521199</v>
+        <v>3.4496542147136</v>
       </c>
       <c r="E3" t="n">
-        <v>2.18434992139032</v>
+        <v>1.53643210720899</v>
       </c>
       <c r="F3" t="n">
-        <v>1.62963149799243</v>
+        <v>1.15474207707155</v>
       </c>
       <c r="G3" t="n">
-        <v>1.39128222458754</v>
+        <v>0.989827795465329</v>
       </c>
       <c r="H3" t="n">
-        <v>1.25837136991145</v>
+        <v>0.897413495818369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.169002637023531</v>
+        <v>0.126142220248815</v>
       </c>
       <c r="B4" t="n">
-        <v>0.539794235725411</v>
+        <v>0.419151897810004</v>
       </c>
       <c r="C4" t="n">
-        <v>2.77874770696804</v>
+        <v>2.24130702415584</v>
       </c>
       <c r="D4" t="n">
-        <v>4.21169493727525</v>
+        <v>3.45676293177719</v>
       </c>
       <c r="E4" t="n">
-        <v>1.84284293212285</v>
+        <v>1.5236960206008</v>
       </c>
       <c r="F4" t="n">
-        <v>1.37213474104978</v>
+        <v>1.13845008346379</v>
       </c>
       <c r="G4" t="n">
-        <v>1.16983433635703</v>
+        <v>0.972373829994434</v>
       </c>
       <c r="H4" t="n">
-        <v>1.05704985411569</v>
+        <v>0.879545108081151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.123620538145545</v>
+        <v>0.0250172851510772</v>
       </c>
       <c r="B5" t="n">
-        <v>0.386734801986571</v>
+        <v>0.101239522691953</v>
       </c>
       <c r="C5" t="n">
-        <v>2.034057410941</v>
+        <v>0.766850982135599</v>
       </c>
       <c r="D5" t="n">
-        <v>3.12330967782784</v>
+        <v>1.34657629790773</v>
       </c>
       <c r="E5" t="n">
-        <v>1.37647654631484</v>
+        <v>0.625750945977933</v>
       </c>
       <c r="F5" t="n">
-        <v>1.02906534882634</v>
+        <v>0.479476347068068</v>
       </c>
       <c r="G5" t="n">
-        <v>0.879514356936211</v>
+        <v>0.415156588760912</v>
       </c>
       <c r="H5" t="n">
-        <v>0.796017286279632</v>
+        <v>0.37860490698411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.11351661753662</v>
+        <v>0.0474720596627553</v>
       </c>
       <c r="B6" t="n">
-        <v>0.347742126270214</v>
+        <v>0.157434137955653</v>
       </c>
       <c r="C6" t="n">
-        <v>1.82170160086336</v>
+        <v>0.977923939649917</v>
       </c>
       <c r="D6" t="n">
-        <v>2.78659865206437</v>
+        <v>1.60587654654799</v>
       </c>
       <c r="E6" t="n">
-        <v>1.22453523003741</v>
+        <v>0.72610924462548</v>
       </c>
       <c r="F6" t="n">
-        <v>0.913881922811749</v>
+        <v>0.54911466364087</v>
       </c>
       <c r="G6" t="n">
-        <v>0.780271892786964</v>
+        <v>0.472106806166139</v>
       </c>
       <c r="H6" t="n">
-        <v>0.705744823596914</v>
+        <v>0.428744780294236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.099528406842042</v>
+        <v>0.0665328208116054</v>
       </c>
       <c r="B7" t="n">
-        <v>0.293964887693528</v>
+        <v>0.199220056002976</v>
       </c>
       <c r="C7" t="n">
-        <v>1.54479275232701</v>
+        <v>1.12669529684099</v>
       </c>
       <c r="D7" t="n">
-        <v>2.36715882115903</v>
+        <v>1.78380946633168</v>
       </c>
       <c r="E7" t="n">
-        <v>1.04045776718527</v>
+        <v>0.794442852260782</v>
       </c>
       <c r="F7" t="n">
-        <v>0.776487982021541</v>
+        <v>0.596494077314656</v>
       </c>
       <c r="G7" t="n">
-        <v>0.662920109459881</v>
+        <v>0.510868255288212</v>
       </c>
       <c r="H7" t="n">
-        <v>0.599547771650113</v>
+        <v>0.462876132752248</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-10.5671642979612</v>
+        <v>15.8858745721827</v>
       </c>
       <c r="B8" t="n">
-        <v>-40.6053358041402</v>
+        <v>34.3188562923357</v>
       </c>
       <c r="C8" t="n">
-        <v>-203.055877653601</v>
+        <v>132.416340600245</v>
       </c>
       <c r="D8" t="n">
-        <v>-306.111799127597</v>
+        <v>166.369475522286</v>
       </c>
       <c r="E8" t="n">
-        <v>-134.796709770816</v>
+        <v>65.4647512406141</v>
       </c>
       <c r="F8" t="n">
-        <v>-101.106541332161</v>
+        <v>45.7902241312574</v>
       </c>
       <c r="G8" t="n">
-        <v>-86.7222938188944</v>
+        <v>37.5395757582505</v>
       </c>
       <c r="H8" t="n">
-        <v>-78.7253268850033</v>
+        <v>33.052442486952</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.281761420438117</v>
+        <v>0.238702524533652</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.09944967566799</v>
+        <v>0.35207170429056</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.45934135783168</v>
+        <v>1.07432334030575</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.15635686748347</v>
+        <v>1.06317950406586</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.56336269503532</v>
+        <v>0.344657984268425</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.65603639153008</v>
+        <v>0.209905976911464</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.26719204770594</v>
+        <v>0.156632153160652</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.0505280901857</v>
+        <v>0.129473178659989</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.240148908446253</v>
+        <v>0.0185031625755407</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.955514193371875</v>
+        <v>-0.245143108621567</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.67381171756015</v>
+        <v>-1.46641952380717</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.88344572031378</v>
+        <v>-2.35433443465304</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.97529663833691</v>
+        <v>-1.05631286707897</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.20139453843201</v>
+        <v>-0.794633542559652</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.86970593176032</v>
+        <v>-0.6801698685877</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.68522382849203</v>
+        <v>-0.615404137896674</v>
       </c>
     </row>
     <row r="11">
@@ -2881,236 +2881,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.195653721348641</v>
+        <v>0.0772676010512222</v>
       </c>
       <c r="B2" t="n">
-        <v>0.645689617350815</v>
+        <v>0.313610886733977</v>
       </c>
       <c r="C2" t="n">
-        <v>3.34861161686131</v>
+        <v>1.85592411017303</v>
       </c>
       <c r="D2" t="n">
-        <v>5.11617853795439</v>
+        <v>3.00288299450073</v>
       </c>
       <c r="E2" t="n">
-        <v>2.25421914732606</v>
+        <v>1.35728891601665</v>
       </c>
       <c r="F2" t="n">
-        <v>1.68673702498547</v>
+        <v>1.02876860451734</v>
       </c>
       <c r="G2" t="n">
-        <v>1.44298208378349</v>
+        <v>0.886495710941548</v>
       </c>
       <c r="H2" t="n">
-        <v>1.30704194717491</v>
+        <v>0.806552608857788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.157139133550823</v>
+        <v>0.0875858427116528</v>
       </c>
       <c r="B3" t="n">
-        <v>0.512818808391938</v>
+        <v>0.317812358710457</v>
       </c>
       <c r="C3" t="n">
-        <v>2.6460577443728</v>
+        <v>1.77129904672157</v>
       </c>
       <c r="D3" t="n">
-        <v>4.02141746501788</v>
+        <v>2.78635045422271</v>
       </c>
       <c r="E3" t="n">
-        <v>1.76434042858194</v>
+        <v>1.24100504959149</v>
       </c>
       <c r="F3" t="n">
-        <v>1.31628394674445</v>
+        <v>0.932706848482065</v>
       </c>
       <c r="G3" t="n">
-        <v>1.1237647651457</v>
+        <v>0.799502488027214</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01641017328014</v>
+        <v>0.724857723720203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.136435845592914</v>
+        <v>0.101834626889392</v>
       </c>
       <c r="B4" t="n">
-        <v>0.435775939916976</v>
+        <v>0.338381368579591</v>
       </c>
       <c r="C4" t="n">
-        <v>2.24328329880892</v>
+        <v>1.80940738239168</v>
       </c>
       <c r="D4" t="n">
-        <v>3.40010173963459</v>
+        <v>2.79064505689099</v>
       </c>
       <c r="E4" t="n">
-        <v>1.48772728146306</v>
+        <v>1.23007994820982</v>
       </c>
       <c r="F4" t="n">
-        <v>1.10772451223038</v>
+        <v>0.919070865036732</v>
       </c>
       <c r="G4" t="n">
-        <v>0.944407375503104</v>
+        <v>0.784997489176684</v>
       </c>
       <c r="H4" t="n">
-        <v>0.853356451828967</v>
+        <v>0.710056852790136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0995953864332949</v>
+        <v>0.0201552769427355</v>
       </c>
       <c r="B5" t="n">
-        <v>0.311574457034867</v>
+        <v>0.0815640308324505</v>
       </c>
       <c r="C5" t="n">
-        <v>1.63874657811039</v>
+        <v>0.617816594623027</v>
       </c>
       <c r="D5" t="n">
-        <v>2.51630707146637</v>
+        <v>1.08487463947243</v>
       </c>
       <c r="E5" t="n">
-        <v>1.10896389550731</v>
+        <v>0.504138779935557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.829070659446614</v>
+        <v>0.386292057842734</v>
       </c>
       <c r="G5" t="n">
-        <v>0.708584298100707</v>
+        <v>0.334472584476947</v>
       </c>
       <c r="H5" t="n">
-        <v>0.641314545494556</v>
+        <v>0.305024574251807</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0914298776648742</v>
+        <v>0.0382354998030588</v>
       </c>
       <c r="B6" t="n">
-        <v>0.280082517905824</v>
+        <v>0.12680243902543</v>
       </c>
       <c r="C6" t="n">
-        <v>1.46725614384266</v>
+        <v>0.787650901762467</v>
       </c>
       <c r="D6" t="n">
-        <v>2.24441477722113</v>
+        <v>1.29342381214282</v>
       </c>
       <c r="E6" t="n">
-        <v>0.986279442677471</v>
+        <v>0.584831374014693</v>
       </c>
       <c r="F6" t="n">
-        <v>0.736069433850629</v>
+        <v>0.442274334896186</v>
       </c>
       <c r="G6" t="n">
-        <v>0.628455685616583</v>
+        <v>0.38024976844117</v>
       </c>
       <c r="H6" t="n">
-        <v>0.568429224587037</v>
+        <v>0.345324619975658</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0801402382458595</v>
+        <v>0.0535722039585471</v>
       </c>
       <c r="B7" t="n">
-        <v>0.23670042436292</v>
+        <v>0.160411919149578</v>
       </c>
       <c r="C7" t="n">
-        <v>1.24386658181359</v>
+        <v>0.907214657445772</v>
       </c>
       <c r="D7" t="n">
-        <v>1.90603545171326</v>
+        <v>1.43632275601396</v>
       </c>
       <c r="E7" t="n">
-        <v>0.837776228844049</v>
+        <v>0.639685105720044</v>
       </c>
       <c r="F7" t="n">
-        <v>0.625227850507169</v>
+        <v>0.480296821631108</v>
       </c>
       <c r="G7" t="n">
-        <v>0.533783039392978</v>
+        <v>0.411350939797721</v>
       </c>
       <c r="H7" t="n">
-        <v>0.482755655237899</v>
+        <v>0.37270769958128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.42294338718212</v>
+        <v>9.65576668971552</v>
       </c>
       <c r="B8" t="n">
-        <v>-24.6807720343508</v>
+        <v>20.8597183561383</v>
       </c>
       <c r="C8" t="n">
-        <v>-123.421607711284</v>
+        <v>80.4854202349529</v>
       </c>
       <c r="D8" t="n">
-        <v>-186.061151365306</v>
+        <v>101.122845496117</v>
       </c>
       <c r="E8" t="n">
-        <v>-81.9322583830183</v>
+        <v>39.7908444705027</v>
       </c>
       <c r="F8" t="n">
-        <v>-61.4546696482754</v>
+        <v>27.8322555596292</v>
       </c>
       <c r="G8" t="n">
-        <v>-52.7116232793692</v>
+        <v>22.8173389828524</v>
       </c>
       <c r="H8" t="n">
-        <v>-47.8508995849851</v>
+        <v>20.0899655684112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.22388989314561</v>
+        <v>0.189674947792097</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.873631563971854</v>
+        <v>0.279759010763927</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.33803659617339</v>
+        <v>0.85366597560051</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.4811068338556</v>
+        <v>0.844810993605092</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.83147668616234</v>
+        <v>0.273868009146366</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.1105079004992</v>
+        <v>0.166792979210063</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.80152905430481</v>
+        <v>0.124461169949302</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.62936612929441</v>
+        <v>0.102880430153758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.190949790964962</v>
+        <v>0.0147124342511053</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7597587541367</v>
+        <v>-0.194920833289008</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.71629159695906</v>
+        <v>-1.16599531244835</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.47323962418404</v>
+        <v>-1.87200379575835</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.36574996249187</v>
+        <v>-0.83990688305573</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.75039657546093</v>
+        <v>-0.631837595378753</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.4866607520537</v>
+        <v>-0.540824004022299</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.33997335179121</v>
+        <v>-0.489326777500812</v>
       </c>
     </row>
     <row r="11">
@@ -3181,236 +3181,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.3217594249702</v>
+        <v>3.68135082419719</v>
       </c>
       <c r="B2" t="n">
-        <v>30.7633467672204</v>
+        <v>14.941730824411</v>
       </c>
       <c r="C2" t="n">
-        <v>159.541825654411</v>
+        <v>88.4239663155019</v>
       </c>
       <c r="D2" t="n">
-        <v>243.756086913488</v>
+        <v>143.06987193047</v>
       </c>
       <c r="E2" t="n">
-        <v>107.400403313008</v>
+        <v>64.6669056845602</v>
       </c>
       <c r="F2" t="n">
-        <v>80.3631878388177</v>
+        <v>49.014827671917</v>
       </c>
       <c r="G2" t="n">
-        <v>68.7496856530672</v>
+        <v>42.2363535520988</v>
       </c>
       <c r="H2" t="n">
-        <v>62.2729304913052</v>
+        <v>38.4275306982634</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.96195094402409</v>
+        <v>5.55256891627377</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5105255255915</v>
+        <v>20.1479482248397</v>
       </c>
       <c r="C3" t="n">
-        <v>167.748776825038</v>
+        <v>112.292805820581</v>
       </c>
       <c r="D3" t="n">
-        <v>254.940717863847</v>
+        <v>176.642736348348</v>
       </c>
       <c r="E3" t="n">
-        <v>111.8516591057</v>
+        <v>78.6744278522961</v>
       </c>
       <c r="F3" t="n">
-        <v>83.4467889033741</v>
+        <v>59.1296366460394</v>
       </c>
       <c r="G3" t="n">
-        <v>71.2418937920605</v>
+        <v>50.685048245963</v>
       </c>
       <c r="H3" t="n">
-        <v>64.4360704836706</v>
+        <v>45.952888513046</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10.4293577158478</v>
+        <v>7.78438941081714</v>
       </c>
       <c r="B4" t="n">
-        <v>33.3113570088798</v>
+        <v>25.8663720077241</v>
       </c>
       <c r="C4" t="n">
-        <v>171.479891370135</v>
+        <v>138.31377496618</v>
       </c>
       <c r="D4" t="n">
-        <v>259.908802989582</v>
+        <v>213.321033265104</v>
       </c>
       <c r="E4" t="n">
-        <v>113.724072545418</v>
+        <v>94.029129538653</v>
       </c>
       <c r="F4" t="n">
-        <v>84.6760991472445</v>
+        <v>70.2551354889658</v>
       </c>
       <c r="G4" t="n">
-        <v>72.1918958013073</v>
+        <v>60.0063684516882</v>
       </c>
       <c r="H4" t="n">
-        <v>65.2318286046758</v>
+        <v>54.277795429459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12.3750796193105</v>
+        <v>2.50436456795777</v>
       </c>
       <c r="B5" t="n">
-        <v>38.7142301589678</v>
+        <v>10.1346198028912</v>
       </c>
       <c r="C5" t="n">
-        <v>203.620068220441</v>
+        <v>76.7659007348892</v>
       </c>
       <c r="D5" t="n">
-        <v>312.660068615592</v>
+        <v>134.799517540242</v>
       </c>
       <c r="E5" t="n">
-        <v>137.792692948033</v>
+        <v>62.6410295125774</v>
       </c>
       <c r="F5" t="n">
-        <v>103.01496673802</v>
+        <v>47.9981567751922</v>
       </c>
       <c r="G5" t="n">
-        <v>88.0441094715014</v>
+        <v>41.5594036190723</v>
       </c>
       <c r="H5" t="n">
-        <v>79.6856043812079</v>
+        <v>37.9003840176929</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.3681917783354</v>
+        <v>4.75411873670997</v>
       </c>
       <c r="B6" t="n">
-        <v>34.8248500231312</v>
+        <v>15.7663389869718</v>
       </c>
       <c r="C6" t="n">
-        <v>182.435432018001</v>
+        <v>97.9347969646755</v>
       </c>
       <c r="D6" t="n">
-        <v>279.06564319272</v>
+        <v>160.821498646216</v>
       </c>
       <c r="E6" t="n">
-        <v>122.631836963453</v>
+        <v>72.7166587945757</v>
       </c>
       <c r="F6" t="n">
-        <v>91.5212696319674</v>
+        <v>54.9914271586871</v>
       </c>
       <c r="G6" t="n">
-        <v>78.1408106490267</v>
+        <v>47.2794277068971</v>
       </c>
       <c r="H6" t="n">
-        <v>70.6772512722998</v>
+        <v>42.936910842792</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.97290521316118</v>
+        <v>6.66669483187283</v>
       </c>
       <c r="B7" t="n">
-        <v>29.4557509155944</v>
+        <v>19.9621675672105</v>
       </c>
       <c r="C7" t="n">
-        <v>154.790699276298</v>
+        <v>112.896666952006</v>
       </c>
       <c r="D7" t="n">
-        <v>237.193091871589</v>
+        <v>178.740555490846</v>
       </c>
       <c r="E7" t="n">
-        <v>104.255528845187</v>
+        <v>79.6044417293281</v>
       </c>
       <c r="F7" t="n">
-        <v>77.8053350753379</v>
+        <v>59.7696585529817</v>
       </c>
       <c r="G7" t="n">
-        <v>66.4256529900482</v>
+        <v>51.1898145269039</v>
       </c>
       <c r="H7" t="n">
-        <v>60.0756435990984</v>
+        <v>46.3809272532516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.94304292213955</v>
+        <v>-5.92767212921319</v>
       </c>
       <c r="B8" t="n">
-        <v>15.151518177351</v>
+        <v>-12.8057745279428</v>
       </c>
       <c r="C8" t="n">
-        <v>75.768486095682</v>
+        <v>-49.4099741290246</v>
       </c>
       <c r="D8" t="n">
-        <v>114.222882213192</v>
+        <v>-62.0792829959861</v>
       </c>
       <c r="E8" t="n">
-        <v>50.2981876123625</v>
+        <v>-24.4275868861745</v>
       </c>
       <c r="F8" t="n">
-        <v>37.727002338622</v>
+        <v>-17.0862129207902</v>
       </c>
       <c r="G8" t="n">
-        <v>32.3596489268432</v>
+        <v>-14.0075572140247</v>
       </c>
       <c r="H8" t="n">
-        <v>29.3756521820073</v>
+        <v>-12.3332235340322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.77417794410569</v>
+        <v>-4.04458611139491</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6291238313129</v>
+        <v>-5.96551849701105</v>
       </c>
       <c r="C9" t="n">
-        <v>92.5033209279566</v>
+        <v>-18.2033820959252</v>
       </c>
       <c r="D9" t="n">
-        <v>138.201670762612</v>
+        <v>-18.014560442817</v>
       </c>
       <c r="E9" t="n">
-        <v>60.3777747820625</v>
+        <v>-5.83990009773404</v>
       </c>
       <c r="F9" t="n">
-        <v>45.0039978484917</v>
+        <v>-3.55665613748127</v>
       </c>
       <c r="G9" t="n">
-        <v>38.4154021241769</v>
+        <v>-2.65398211648214</v>
       </c>
       <c r="H9" t="n">
-        <v>34.7442384649812</v>
+        <v>-2.19379925381776</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.06969440075802</v>
+        <v>-0.236515980530325</v>
       </c>
       <c r="B10" t="n">
-        <v>12.213824281841</v>
+        <v>3.1335325768864</v>
       </c>
       <c r="C10" t="n">
-        <v>59.7428227028675</v>
+        <v>18.7444524754131</v>
       </c>
       <c r="D10" t="n">
-        <v>87.9873863357495</v>
+        <v>30.0941914678064</v>
       </c>
       <c r="E10" t="n">
-        <v>38.0316175092717</v>
+        <v>13.5022795418896</v>
       </c>
       <c r="F10" t="n">
-        <v>28.1392429897155</v>
+        <v>10.1573734064913</v>
       </c>
       <c r="G10" t="n">
-        <v>23.8994458351795</v>
+        <v>8.69424579389782</v>
       </c>
       <c r="H10" t="n">
-        <v>21.5413102804245</v>
+        <v>7.86638027433522</v>
       </c>
     </row>
     <row r="11">
@@ -3559,158 +3559,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.727945859959444</v>
+        <v>0.147315562821046</v>
       </c>
       <c r="B5" t="n">
-        <v>2.27730765640988</v>
+        <v>0.596154106052425</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9776510717907</v>
+        <v>4.51564121969938</v>
       </c>
       <c r="D5" t="n">
-        <v>18.3917687420937</v>
+        <v>7.92938338472016</v>
       </c>
       <c r="E5" t="n">
-        <v>8.1054525263549</v>
+        <v>3.68476644191633</v>
       </c>
       <c r="F5" t="n">
-        <v>6.0597039257659</v>
+        <v>2.82342098677602</v>
       </c>
       <c r="G5" t="n">
-        <v>5.17906526302951</v>
+        <v>2.44467080112191</v>
       </c>
       <c r="H5" t="n">
-        <v>4.68738849301224</v>
+        <v>2.22943435398194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.668717163431498</v>
+        <v>0.279654043335882</v>
       </c>
       <c r="B6" t="n">
-        <v>2.04852058959596</v>
+        <v>0.927431705115993</v>
       </c>
       <c r="C6" t="n">
-        <v>10.7314960010589</v>
+        <v>5.76087040968681</v>
       </c>
       <c r="D6" t="n">
-        <v>16.4156260701601</v>
+        <v>9.46008815565982</v>
       </c>
       <c r="E6" t="n">
-        <v>7.21363746843842</v>
+        <v>4.277450517328</v>
       </c>
       <c r="F6" t="n">
-        <v>5.3836040959981</v>
+        <v>3.23478983286396</v>
       </c>
       <c r="G6" t="n">
-        <v>4.59651827347217</v>
+        <v>2.78114280628807</v>
       </c>
       <c r="H6" t="n">
-        <v>4.15748536895883</v>
+        <v>2.5257006378113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.58664148312713</v>
+        <v>0.392158519521932</v>
       </c>
       <c r="B7" t="n">
-        <v>1.73269123032908</v>
+        <v>1.17424515101238</v>
       </c>
       <c r="C7" t="n">
-        <v>9.10533525154698</v>
+        <v>6.64098040894153</v>
       </c>
       <c r="D7" t="n">
-        <v>13.9525348159759</v>
+        <v>10.514150322991</v>
       </c>
       <c r="E7" t="n">
-        <v>6.13267816736394</v>
+        <v>4.68261421937225</v>
       </c>
       <c r="F7" t="n">
-        <v>4.57678441619636</v>
+        <v>3.51586226782246</v>
       </c>
       <c r="G7" t="n">
-        <v>3.90739135235579</v>
+        <v>3.01116556040612</v>
       </c>
       <c r="H7" t="n">
-        <v>3.53386138818227</v>
+        <v>2.72828983842657</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.231943701302327</v>
+        <v>0.348686595836071</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.8912657751383</v>
+        <v>0.753280854584874</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.45696977033425</v>
+        <v>2.90646906641322</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.71899307136426</v>
+        <v>3.65172252917567</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.95871691837427</v>
+        <v>1.43691687565733</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.21923543168365</v>
+        <v>1.00507134828178</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.90350876040255</v>
+        <v>0.823973953766159</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.72797954011808</v>
+        <v>0.725483737296015</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.210625497534076</v>
+        <v>0.178437622561541</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.821873110204984</v>
+        <v>0.263184639574018</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.0810288644687</v>
+        <v>0.803090386584942</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.09713253364469</v>
+        <v>0.794760019536049</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.66372535803218</v>
+        <v>0.257642651370621</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.98547049331582</v>
+        <v>0.156911300182998</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.69479715253722</v>
+        <v>0.117087446315389</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.53283404992565</v>
+        <v>0.0967852611978429</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.18057025886812</v>
+        <v>0.013912704737078</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.718460251873005</v>
+        <v>-0.1843254456992</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.51428368840398</v>
+        <v>-1.10261485149489</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.17572860798528</v>
+        <v>-1.7702465569298</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.23715397113364</v>
+        <v>-0.794251737758215</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.65524958763033</v>
+        <v>-0.597492553323018</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.40584975501057</v>
+        <v>-0.511426223170461</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.26713589884851</v>
+        <v>-0.462728251431485</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_8.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_8.xlsx
@@ -637,28 +637,28 @@
         <v>0.0125</v>
       </c>
       <c r="H5" t="n">
-        <v>276.166762970885</v>
+        <v>297.216762939616</v>
       </c>
       <c r="I5" t="n">
-        <v>161.41899700805</v>
+        <v>188.88876163263</v>
       </c>
       <c r="J5" t="n">
-        <v>100.959508575313</v>
+        <v>130.412949014979</v>
       </c>
       <c r="K5" t="n">
-        <v>66.9821020354688</v>
+        <v>96.671736245233</v>
       </c>
       <c r="L5" t="n">
-        <v>45.2686976209134</v>
+        <v>74.9946715363091</v>
       </c>
       <c r="M5" t="n">
-        <v>30.260054230837</v>
+        <v>59.9962744177698</v>
       </c>
       <c r="N5" t="n">
-        <v>19.3476709425518</v>
+        <v>49.0886568390619</v>
       </c>
       <c r="O5" t="n">
-        <v>11.1067743893329</v>
+        <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.0125</v>
       </c>
       <c r="H6" t="n">
-        <v>293.1868462847</v>
+        <v>307.224346263849</v>
       </c>
       <c r="I6" t="n">
-        <v>182.016579273066</v>
+        <v>200.100040166797</v>
       </c>
       <c r="J6" t="n">
-        <v>120.254267578413</v>
+        <v>139.771055953038</v>
       </c>
       <c r="K6" t="n">
-        <v>84.2739208470969</v>
+        <v>103.976596989415</v>
       </c>
       <c r="L6" t="n">
-        <v>61.1937751432458</v>
+        <v>80.9258040028391</v>
       </c>
       <c r="M6" t="n">
-        <v>45.377526084738</v>
+        <v>65.1175728470531</v>
       </c>
       <c r="N6" t="n">
-        <v>33.9876014729822</v>
+        <v>53.731219933595</v>
       </c>
       <c r="O6" t="n">
-        <v>25.4488409393044</v>
+        <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.0125</v>
       </c>
       <c r="H7" t="n">
-        <v>307.656073605541</v>
+        <v>314.668573595124</v>
       </c>
       <c r="I7" t="n">
-        <v>197.36250145535</v>
+        <v>206.219833547116</v>
       </c>
       <c r="J7" t="n">
-        <v>133.891524453198</v>
+        <v>143.504334912525</v>
       </c>
       <c r="K7" t="n">
-        <v>96.1812803586853</v>
+        <v>105.902653793024</v>
       </c>
       <c r="L7" t="n">
-        <v>72.0802889403447</v>
+        <v>81.8196981772802</v>
       </c>
       <c r="M7" t="n">
-        <v>55.706710379565</v>
+        <v>65.4510274707899</v>
       </c>
       <c r="N7" t="n">
-        <v>43.9959144648564</v>
+        <v>53.7423740102523</v>
       </c>
       <c r="O7" t="n">
-        <v>35.2560581493574</v>
+        <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>212.375807903736</v>
+        <v>266.000807930288</v>
       </c>
       <c r="I8" t="n">
-        <v>77.5162589672474</v>
+        <v>155.562935242816</v>
       </c>
       <c r="J8" t="n">
-        <v>-14.045689195886</v>
+        <v>72.7835029649257</v>
       </c>
       <c r="K8" t="n">
-        <v>-63.8454676587368</v>
+        <v>24.721654691844</v>
       </c>
       <c r="L8" t="n">
-        <v>-92.347964039085</v>
+        <v>-3.38530595420321</v>
       </c>
       <c r="M8" t="n">
-        <v>-110.433937714629</v>
+        <v>-21.3416730890296</v>
       </c>
       <c r="N8" t="n">
-        <v>-122.871388609178</v>
+        <v>-33.7208561709312</v>
       </c>
       <c r="O8" t="n">
-        <v>-131.938972723872</v>
+        <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>234.271568667736</v>
+        <v>270.271568685561</v>
       </c>
       <c r="I9" t="n">
-        <v>107.988579265978</v>
+        <v>159.254117451636</v>
       </c>
       <c r="J9" t="n">
-        <v>18.5460497754398</v>
+        <v>75.9090207918885</v>
       </c>
       <c r="K9" t="n">
-        <v>-31.5713942997207</v>
+        <v>27.1105522435488</v>
       </c>
       <c r="L9" t="n">
-        <v>-60.6615492677588</v>
+        <v>-1.66299881454391</v>
       </c>
       <c r="M9" t="n">
-        <v>-79.2647430206882</v>
+        <v>-20.1584247153941</v>
       </c>
       <c r="N9" t="n">
-        <v>-92.1146861106535</v>
+        <v>-32.9580172322294</v>
       </c>
       <c r="O9" t="n">
-        <v>-101.504070488222</v>
+        <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>255.431157304974</v>
+        <v>273.431157313886</v>
       </c>
       <c r="I10" t="n">
-        <v>135.813055843614</v>
+        <v>160.852162605097</v>
       </c>
       <c r="J10" t="n">
-        <v>48.0748494497129</v>
+        <v>76.2284892037397</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.59544164514419</v>
+        <v>26.2981452880862</v>
       </c>
       <c r="L10" t="n">
-        <v>-32.3977568239551</v>
+        <v>-3.31648855059343</v>
       </c>
       <c r="M10" t="n">
-        <v>-51.5410125284338</v>
+        <v>-22.3938021710369</v>
       </c>
       <c r="N10" t="n">
-        <v>-64.7679936149297</v>
+        <v>-35.5887361600515</v>
       </c>
       <c r="O10" t="n">
-        <v>-74.4183693074558</v>
+        <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
@@ -1153,28 +1153,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9462894154569</v>
+        <v>39.9962893841882</v>
       </c>
       <c r="H5" t="n">
-        <v>37.0665969469494</v>
+        <v>64.5363615715299</v>
       </c>
       <c r="I5" t="n">
-        <v>69.9696166610458</v>
+        <v>99.4230571007118</v>
       </c>
       <c r="J5" t="n">
-        <v>89.5753795111941</v>
+        <v>119.265013720958</v>
       </c>
       <c r="K5" t="n">
-        <v>99.0075382039711</v>
+        <v>128.733512119367</v>
       </c>
       <c r="L5" t="n">
-        <v>103.758434079803</v>
+        <v>133.494654266735</v>
       </c>
       <c r="M5" t="n">
-        <v>106.367870576697</v>
+        <v>136.108856473207</v>
       </c>
       <c r="N5" t="n">
-        <v>107.925530574442</v>
+        <v>137.669294341224</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>35.9663727292728</v>
+        <v>50.0038727084208</v>
       </c>
       <c r="H6" t="n">
-        <v>57.6641792119662</v>
+        <v>75.7476401056969</v>
       </c>
       <c r="I6" t="n">
-        <v>89.2643756641462</v>
+        <v>108.781164038771</v>
       </c>
       <c r="J6" t="n">
-        <v>106.867198322822</v>
+        <v>126.56987446514</v>
       </c>
       <c r="K6" t="n">
-        <v>114.932615726303</v>
+        <v>134.664644585897</v>
       </c>
       <c r="L6" t="n">
-        <v>118.875905933704</v>
+        <v>138.615952696019</v>
       </c>
       <c r="M6" t="n">
-        <v>121.007801107127</v>
+        <v>140.75141956774</v>
       </c>
       <c r="N6" t="n">
-        <v>122.267597124414</v>
+        <v>142.01322774245</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>50.4356000501135</v>
+        <v>57.4481000396968</v>
       </c>
       <c r="H7" t="n">
-        <v>73.0101013942496</v>
+        <v>81.8674334860162</v>
       </c>
       <c r="I7" t="n">
-        <v>102.901632538931</v>
+        <v>112.514442998258</v>
       </c>
       <c r="J7" t="n">
-        <v>118.774557834411</v>
+        <v>128.49593126875</v>
       </c>
       <c r="K7" t="n">
-        <v>125.819129523402</v>
+        <v>135.558538760338</v>
       </c>
       <c r="L7" t="n">
-        <v>129.205090228531</v>
+        <v>138.949407319755</v>
       </c>
       <c r="M7" t="n">
-        <v>131.016114099001</v>
+        <v>140.762573644397</v>
       </c>
       <c r="N7" t="n">
-        <v>132.074814334467</v>
+        <v>141.8224565217</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>-0.00416666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>-44.8446656516921</v>
+        <v>8.78033437486027</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8361410938528</v>
+        <v>31.210535181716</v>
       </c>
       <c r="I8" t="n">
-        <v>-45.0355811101528</v>
+        <v>41.7936110506589</v>
       </c>
       <c r="J8" t="n">
-        <v>-41.2521901830115</v>
+        <v>47.3149321675693</v>
       </c>
       <c r="K8" t="n">
-        <v>-38.6091234560273</v>
+        <v>50.3535346288545</v>
       </c>
       <c r="L8" t="n">
-        <v>-36.9355578656631</v>
+        <v>52.156706759936</v>
       </c>
       <c r="M8" t="n">
-        <v>-35.8511889750334</v>
+        <v>53.2993434632136</v>
       </c>
       <c r="N8" t="n">
-        <v>-35.1202165387623</v>
+        <v>54.0623310393967</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>-0.00416666666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>-22.9489048876922</v>
+        <v>13.0510951301332</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.3638207951224</v>
+        <v>34.9017173905357</v>
       </c>
       <c r="I9" t="n">
-        <v>-12.443842138827</v>
+        <v>44.9191288776217</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.9781168239954</v>
+        <v>49.7038297192741</v>
       </c>
       <c r="K9" t="n">
-        <v>-6.92270868470105</v>
+        <v>52.0758417685138</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.76636317172253</v>
+        <v>53.3399551335716</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.09448647650869</v>
+        <v>54.0621824019155</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.68531430311303</v>
+        <v>54.5000619342742</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>-0.00416666666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.78931625045402</v>
+        <v>16.2106837584587</v>
       </c>
       <c r="H10" t="n">
-        <v>11.4606557825138</v>
+        <v>36.499762543997</v>
       </c>
       <c r="I10" t="n">
-        <v>17.0849575354461</v>
+        <v>45.2385972894729</v>
       </c>
       <c r="J10" t="n">
-        <v>19.9978358305811</v>
+        <v>48.8914227638114</v>
       </c>
       <c r="K10" t="n">
-        <v>21.3410837591026</v>
+        <v>50.4223520324643</v>
       </c>
       <c r="L10" t="n">
-        <v>21.9573673205318</v>
+        <v>51.1045776779287</v>
       </c>
       <c r="M10" t="n">
-        <v>22.2522060192151</v>
+        <v>51.4314634740933</v>
       </c>
       <c r="N10" t="n">
-        <v>22.4003868776534</v>
+        <v>51.5989135914275</v>
       </c>
     </row>
     <row r="11">
@@ -1651,28 +1651,28 @@
         <v>0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0736577814105229</v>
+        <v>0.155494190766932</v>
       </c>
       <c r="H5" t="n">
-        <v>0.298077053026213</v>
+        <v>0.518979621943928</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25782060984969</v>
+        <v>3.20824149292823</v>
       </c>
       <c r="J5" t="n">
-        <v>3.96469169236008</v>
+        <v>5.27878320660202</v>
       </c>
       <c r="K5" t="n">
-        <v>1.84238322095816</v>
+        <v>2.39553944079606</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41171049338801</v>
+        <v>1.81629383587854</v>
       </c>
       <c r="M5" t="n">
-        <v>1.22233540056095</v>
+        <v>1.56410646086131</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11471717699097</v>
+        <v>1.42192793799181</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.139827021667941</v>
+        <v>0.19440082671975</v>
       </c>
       <c r="H6" t="n">
-        <v>0.463715852557997</v>
+        <v>0.609136937192032</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88043520484341</v>
+        <v>3.51021437376138</v>
       </c>
       <c r="J6" t="n">
-        <v>4.73004407782991</v>
+        <v>5.60210330710671</v>
       </c>
       <c r="K6" t="n">
-        <v>2.138725258664</v>
+        <v>2.50590900594072</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61739491643198</v>
+        <v>1.88597290145532</v>
       </c>
       <c r="M6" t="n">
-        <v>1.39057140314404</v>
+        <v>1.61745686816963</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26285031890565</v>
+        <v>1.46679458958276</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.196079259760966</v>
+        <v>0.223341864065566</v>
       </c>
       <c r="H7" t="n">
-        <v>0.587122575506193</v>
+        <v>0.658350248533931</v>
       </c>
       <c r="I7" t="n">
-        <v>3.32049020447076</v>
+        <v>3.6306820078472</v>
       </c>
       <c r="J7" t="n">
-        <v>5.25707516149548</v>
+        <v>5.68735241740861</v>
       </c>
       <c r="K7" t="n">
-        <v>2.34130710968613</v>
+        <v>2.5225430487437</v>
       </c>
       <c r="L7" t="n">
-        <v>1.75793113391123</v>
+        <v>1.89050979906343</v>
       </c>
       <c r="M7" t="n">
-        <v>1.50558278020306</v>
+        <v>1.61758504618697</v>
       </c>
       <c r="N7" t="n">
-        <v>1.36414491921329</v>
+        <v>1.4648241942971</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>-0.5</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.174343297918035</v>
+        <v>0.0341354412947546</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.376640427292437</v>
+        <v>0.250984582254792</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.45323453320661</v>
+        <v>1.34862074273381</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.82586126458783</v>
+        <v>2.09420400463835</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.718458437828665</v>
+        <v>0.937004484699089</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.50253567414089</v>
+        <v>0.709630700256449</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.41198697688308</v>
+        <v>0.612493923104034</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.362741868648007</v>
+        <v>0.558386961055708</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>-0.5</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0892188112807706</v>
+        <v>0.0507389437152283</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.131592319787009</v>
+        <v>0.280667822843683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.401545193292471</v>
+        <v>1.4494767842976</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.397380009768025</v>
+        <v>2.19993888769246</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.12882132568531</v>
+        <v>0.969054062266684</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.078455650091499</v>
+        <v>0.725729672452396</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0585437231576946</v>
+        <v>0.621260151426987</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0483926305989214</v>
+        <v>0.562908098406829</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>-0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.006956352368539</v>
+        <v>0.0630225251294605</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0921627228496002</v>
+        <v>0.29351876221177</v>
       </c>
       <c r="I10" t="n">
-        <v>0.551307425747447</v>
+        <v>1.4597855782984</v>
       </c>
       <c r="J10" t="n">
-        <v>0.885123278464898</v>
+        <v>2.16398098134905</v>
       </c>
       <c r="K10" t="n">
-        <v>0.397125868879107</v>
+        <v>0.938285074359438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.298746276661509</v>
+        <v>0.695315703324961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.255713111585231</v>
+        <v>0.591029021886003</v>
       </c>
       <c r="N10" t="n">
-        <v>0.231364125715743</v>
+        <v>0.532943363709143</v>
       </c>
     </row>
     <row r="11">
@@ -2059,158 +2059,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.362013685183267</v>
+        <v>0.764223737752778</v>
       </c>
       <c r="B5" t="n">
-        <v>1.46499080434116</v>
+        <v>2.55068401297381</v>
       </c>
       <c r="C5" t="n">
-        <v>11.0967496414119</v>
+        <v>15.7678836311908</v>
       </c>
       <c r="D5" t="n">
-        <v>19.4856893960386</v>
+        <v>25.9441938829906</v>
       </c>
       <c r="E5" t="n">
-        <v>9.05495558740245</v>
+        <v>11.7736109390956</v>
       </c>
       <c r="F5" t="n">
-        <v>6.93828280375373</v>
+        <v>8.92673132845821</v>
       </c>
       <c r="G5" t="n">
-        <v>6.0075410148563</v>
+        <v>7.68727937595019</v>
       </c>
       <c r="H5" t="n">
-        <v>5.47861835439343</v>
+        <v>6.98849955890633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.855191949672832</v>
+        <v>1.18896919949623</v>
       </c>
       <c r="B6" t="n">
-        <v>2.83611893690357</v>
+        <v>3.72552457115254</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6169453468455</v>
+        <v>21.4687192665483</v>
       </c>
       <c r="D6" t="n">
-        <v>28.9292839731939</v>
+        <v>34.2628598701795</v>
       </c>
       <c r="E6" t="n">
-        <v>13.0805948804011</v>
+        <v>15.3263166370117</v>
       </c>
       <c r="F6" t="n">
-        <v>9.8921016515617</v>
+        <v>11.5347435952395</v>
       </c>
       <c r="G6" t="n">
-        <v>8.50483300887394</v>
+        <v>9.89248055276889</v>
       </c>
       <c r="H6" t="n">
-        <v>7.72368182835648</v>
+        <v>8.97101940577514</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.57071475992103</v>
+        <v>1.78910488964369</v>
       </c>
       <c r="B7" t="n">
-        <v>4.70321081563982</v>
+        <v>5.27378802750754</v>
       </c>
       <c r="C7" t="n">
-        <v>26.5991567935003</v>
+        <v>29.0839827999012</v>
       </c>
       <c r="D7" t="n">
-        <v>42.1123863902866</v>
+        <v>45.5591702956571</v>
       </c>
       <c r="E7" t="n">
-        <v>18.7553014998894</v>
+        <v>20.2071121852872</v>
       </c>
       <c r="F7" t="n">
-        <v>14.0821032388901</v>
+        <v>15.1441394096664</v>
       </c>
       <c r="G7" t="n">
-        <v>12.0606386316982</v>
+        <v>12.9578452640568</v>
       </c>
       <c r="H7" t="n">
-        <v>10.9276348854624</v>
+        <v>11.7341374374666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.06382256271059</v>
+        <v>0.404084899009528</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.45855402047364</v>
+        <v>2.97107861291838</v>
       </c>
       <c r="C8" t="n">
-        <v>-17.2029453059448</v>
+        <v>15.9645592955462</v>
       </c>
       <c r="D8" t="n">
-        <v>-21.6139864235403</v>
+        <v>24.7905455919702</v>
       </c>
       <c r="E8" t="n">
-        <v>-8.5048909368326</v>
+        <v>11.0919721031785</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.94886339334101</v>
+        <v>8.40039088322118</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.87697564855041</v>
+        <v>7.25051546644207</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.2940271401056</v>
+        <v>6.6100138216495</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.50945365868195</v>
+        <v>0.858429776514138</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.22635233204186</v>
+        <v>4.74849491922121</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.79356575637438</v>
+        <v>24.5230574564282</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.72309685615253</v>
+        <v>37.2197942926392</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.17947110682768</v>
+        <v>16.3949976327954</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.32735648878129</v>
+        <v>12.2782997618063</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.990475392405185</v>
+        <v>10.5108260814374</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.818733541303412</v>
+        <v>9.52359347142547</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.200225778460215</v>
+        <v>1.81398719990732</v>
       </c>
       <c r="B10" t="n">
-        <v>2.65273406951492</v>
+        <v>8.44839645017487</v>
       </c>
       <c r="C10" t="n">
-        <v>15.8683678806172</v>
+        <v>42.0172366658274</v>
       </c>
       <c r="D10" t="n">
-        <v>25.4766417908058</v>
+        <v>62.2862031146238</v>
       </c>
       <c r="E10" t="n">
-        <v>11.4305360094501</v>
+        <v>27.0068060785535</v>
       </c>
       <c r="F10" t="n">
-        <v>8.59886081636264</v>
+        <v>20.0133806624709</v>
       </c>
       <c r="G10" t="n">
-        <v>7.36023049395785</v>
+        <v>17.0116807962329</v>
       </c>
       <c r="H10" t="n">
-        <v>6.65938982457425</v>
+        <v>15.339792210135</v>
       </c>
     </row>
     <row r="11">
@@ -2359,158 +2359,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.146286331278177</v>
+        <v>0.308815637218117</v>
       </c>
       <c r="B5" t="n">
-        <v>0.591989029406007</v>
+        <v>1.03070746156721</v>
       </c>
       <c r="C5" t="n">
-        <v>4.48409234400293</v>
+        <v>6.37165373253889</v>
       </c>
       <c r="D5" t="n">
-        <v>7.87398413606802</v>
+        <v>10.4838051610979</v>
       </c>
       <c r="E5" t="n">
-        <v>3.65902253694458</v>
+        <v>4.75760563942492</v>
       </c>
       <c r="F5" t="n">
-        <v>2.80369493826669</v>
+        <v>3.60720831778786</v>
       </c>
       <c r="G5" t="n">
-        <v>2.42759091999963</v>
+        <v>3.10635742084958</v>
       </c>
       <c r="H5" t="n">
-        <v>2.21385823889992</v>
+        <v>2.82398705754458</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.329727903408814</v>
+        <v>0.4584190970431</v>
       </c>
       <c r="B6" t="n">
-        <v>1.09349433333768</v>
+        <v>1.43641366878406</v>
       </c>
       <c r="C6" t="n">
-        <v>6.79239141096368</v>
+        <v>8.27748179264259</v>
       </c>
       <c r="D6" t="n">
-        <v>11.1539779522581</v>
+        <v>13.2103920694135</v>
       </c>
       <c r="E6" t="n">
-        <v>5.04335561964157</v>
+        <v>5.90921635035828</v>
       </c>
       <c r="F6" t="n">
-        <v>3.8139998150405</v>
+        <v>4.44733702588244</v>
       </c>
       <c r="G6" t="n">
-        <v>3.27912436258421</v>
+        <v>3.81414590423216</v>
       </c>
       <c r="H6" t="n">
-        <v>2.97794362638121</v>
+        <v>3.45886724172</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.563262260095954</v>
+        <v>0.641577509426406</v>
       </c>
       <c r="B7" t="n">
-        <v>1.68658321760356</v>
+        <v>1.89119363963335</v>
       </c>
       <c r="C7" t="n">
-        <v>9.53852446952681</v>
+        <v>10.4295893197616</v>
       </c>
       <c r="D7" t="n">
-        <v>15.1016075875033</v>
+        <v>16.3376329576979</v>
       </c>
       <c r="E7" t="n">
-        <v>6.72569824971903</v>
+        <v>7.2463212098864</v>
       </c>
       <c r="F7" t="n">
-        <v>5.0498776096308</v>
+        <v>5.43072644935595</v>
       </c>
       <c r="G7" t="n">
-        <v>4.32497532157426</v>
+        <v>4.64671587460811</v>
       </c>
       <c r="H7" t="n">
-        <v>3.91867733094864</v>
+        <v>4.20789117282904</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.12553659934969</v>
+        <v>0.220373762404459</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.43153932944209</v>
+        <v>1.62032229844057</v>
       </c>
       <c r="C8" t="n">
-        <v>-9.38188432876773</v>
+        <v>8.70651193774414</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.7875117837605</v>
+        <v>13.5198959860981</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.63826987641325</v>
+        <v>6.0491734060201</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.24430190594627</v>
+        <v>4.58127920429889</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.65973184214597</v>
+        <v>3.95417739348356</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.3418121267373</v>
+        <v>3.6048702116632</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.866831955996102</v>
+        <v>0.492969332301863</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.27852440889473</v>
+        <v>2.72691189636141</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.90133202096995</v>
+        <v>14.0828237685166</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.86086393884973</v>
+        <v>21.3741620372985</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.25160198970143</v>
+        <v>9.41513360469582</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.762259255099689</v>
+        <v>7.05104296353596</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.568798993481057</v>
+        <v>6.03603819097239</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.470173027814158</v>
+        <v>5.46910142584701</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.136346445816215</v>
+        <v>1.23525906287145</v>
       </c>
       <c r="B10" t="n">
-        <v>1.80641506231333</v>
+        <v>5.75304957077022</v>
       </c>
       <c r="C10" t="n">
-        <v>10.8057792461337</v>
+        <v>28.6122043148538</v>
       </c>
       <c r="D10" t="n">
-        <v>17.3486630254228</v>
+        <v>42.4146305404591</v>
       </c>
       <c r="E10" t="n">
-        <v>7.78377774654258</v>
+        <v>18.3906490461727</v>
       </c>
       <c r="F10" t="n">
-        <v>5.85551031138744</v>
+        <v>13.6283816353701</v>
       </c>
       <c r="G10" t="n">
-        <v>5.0120482784822</v>
+        <v>11.5843336046123</v>
       </c>
       <c r="H10" t="n">
-        <v>4.53480136707665</v>
+        <v>10.4458385103832</v>
       </c>
     </row>
     <row r="11">
@@ -2659,158 +2659,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0250172851510772</v>
+        <v>0.0528123768495231</v>
       </c>
       <c r="B5" t="n">
-        <v>0.101239522691953</v>
+        <v>0.17626733986743</v>
       </c>
       <c r="C5" t="n">
-        <v>0.766850982135599</v>
+        <v>1.08965394728325</v>
       </c>
       <c r="D5" t="n">
-        <v>1.34657629790773</v>
+        <v>1.7928971277896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.625750945977933</v>
+        <v>0.813626098063354</v>
       </c>
       <c r="F5" t="n">
-        <v>0.479476347068068</v>
+        <v>0.616889891878087</v>
       </c>
       <c r="G5" t="n">
-        <v>0.415156588760912</v>
+        <v>0.531236436784931</v>
       </c>
       <c r="H5" t="n">
-        <v>0.37860490698411</v>
+        <v>0.482946621630695</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0474720596627553</v>
+        <v>0.0660001731742875</v>
       </c>
       <c r="B6" t="n">
-        <v>0.157434137955653</v>
+        <v>0.206805413433176</v>
       </c>
       <c r="C6" t="n">
-        <v>0.977923939649917</v>
+        <v>1.19173750676024</v>
       </c>
       <c r="D6" t="n">
-        <v>1.60587654654799</v>
+        <v>1.90194555572704</v>
       </c>
       <c r="E6" t="n">
-        <v>0.72610924462548</v>
+        <v>0.850770190342462</v>
       </c>
       <c r="F6" t="n">
-        <v>0.54911466364087</v>
+        <v>0.640298398923518</v>
       </c>
       <c r="G6" t="n">
-        <v>0.472106806166139</v>
+        <v>0.549135696603962</v>
       </c>
       <c r="H6" t="n">
-        <v>0.428744780294236</v>
+        <v>0.497985006324741</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0665328208116054</v>
+        <v>0.0757834573616762</v>
       </c>
       <c r="B7" t="n">
-        <v>0.199220056002976</v>
+        <v>0.223388741728123</v>
       </c>
       <c r="C7" t="n">
-        <v>1.12669529684099</v>
+        <v>1.2319483240935</v>
       </c>
       <c r="D7" t="n">
-        <v>1.78380946633168</v>
+        <v>1.92980940330552</v>
       </c>
       <c r="E7" t="n">
-        <v>0.794442852260782</v>
+        <v>0.855939097568114</v>
       </c>
       <c r="F7" t="n">
-        <v>0.596494077314656</v>
+        <v>0.64148013337569</v>
       </c>
       <c r="G7" t="n">
-        <v>0.510868255288212</v>
+        <v>0.548872410864305</v>
       </c>
       <c r="H7" t="n">
-        <v>0.462876132752248</v>
+        <v>0.497038216884756</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15.8858745721827</v>
+        <v>-3.11036526984545</v>
       </c>
       <c r="B8" t="n">
-        <v>34.3188562923357</v>
+        <v>-22.8693023526821</v>
       </c>
       <c r="C8" t="n">
-        <v>132.416340600245</v>
+        <v>-122.884104065676</v>
       </c>
       <c r="D8" t="n">
-        <v>166.369475522286</v>
+        <v>-190.82042466518</v>
       </c>
       <c r="E8" t="n">
-        <v>65.4647512406141</v>
+        <v>-85.378307599185</v>
       </c>
       <c r="F8" t="n">
-        <v>45.7902241312574</v>
+        <v>-64.6603823115929</v>
       </c>
       <c r="G8" t="n">
-        <v>37.5395757582505</v>
+        <v>-55.8094389336903</v>
       </c>
       <c r="H8" t="n">
-        <v>33.052442486952</v>
+        <v>-50.8793015389873</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.238702524533652</v>
+        <v>-0.135750676153721</v>
       </c>
       <c r="B9" t="n">
-        <v>0.35207170429056</v>
+        <v>-0.750919194129531</v>
       </c>
       <c r="C9" t="n">
-        <v>1.07432334030575</v>
+        <v>-3.87803606322347</v>
       </c>
       <c r="D9" t="n">
-        <v>1.06317950406586</v>
+        <v>-5.8858771908467</v>
       </c>
       <c r="E9" t="n">
-        <v>0.344657984268425</v>
+        <v>-2.59267802105882</v>
       </c>
       <c r="F9" t="n">
-        <v>0.209905976911464</v>
+        <v>-1.94167017534232</v>
       </c>
       <c r="G9" t="n">
-        <v>0.156632153160652</v>
+        <v>-1.66216478799627</v>
       </c>
       <c r="H9" t="n">
-        <v>0.129473178659989</v>
+        <v>-1.50604544312179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0185031625755407</v>
+        <v>-0.167633260452047</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.245143108621567</v>
+        <v>-0.780728906249542</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.46641952380717</v>
+        <v>-3.88287545680465</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.35433443465304</v>
+        <v>-5.7559608523237</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.05631286707897</v>
+        <v>-2.4957391968231</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.794633542559652</v>
+        <v>-1.84946633211599</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.6801698685877</v>
+        <v>-1.57207477417023</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.615404137896674</v>
+        <v>-1.41757305838388</v>
       </c>
     </row>
     <row r="11">
@@ -2959,158 +2959,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0201552769427355</v>
+        <v>0.0425485049627944</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0815640308324505</v>
+        <v>0.142010495124982</v>
       </c>
       <c r="C5" t="n">
-        <v>0.617816594623027</v>
+        <v>0.877884108791606</v>
       </c>
       <c r="D5" t="n">
-        <v>1.08487463947243</v>
+        <v>1.44445482082529</v>
       </c>
       <c r="E5" t="n">
-        <v>0.504138779935557</v>
+        <v>0.655501155911719</v>
       </c>
       <c r="F5" t="n">
-        <v>0.386292057842734</v>
+        <v>0.496999835869147</v>
       </c>
       <c r="G5" t="n">
-        <v>0.334472584476947</v>
+        <v>0.427992783422036</v>
       </c>
       <c r="H5" t="n">
-        <v>0.305024574251807</v>
+        <v>0.389087898576639</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0382354998030588</v>
+        <v>0.0531586290195702</v>
       </c>
       <c r="B6" t="n">
-        <v>0.12680243902543</v>
+        <v>0.166567627374286</v>
       </c>
       <c r="C6" t="n">
-        <v>0.787650901762467</v>
+        <v>0.959863117984295</v>
       </c>
       <c r="D6" t="n">
-        <v>1.29342381214282</v>
+        <v>1.53188716558857</v>
       </c>
       <c r="E6" t="n">
-        <v>0.584831374014693</v>
+        <v>0.685237246422003</v>
       </c>
       <c r="F6" t="n">
-        <v>0.442274334896186</v>
+        <v>0.51571660214159</v>
       </c>
       <c r="G6" t="n">
-        <v>0.38024976844117</v>
+        <v>0.442291275510558</v>
       </c>
       <c r="H6" t="n">
-        <v>0.345324619975658</v>
+        <v>0.401092890144694</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0535722039585471</v>
+        <v>0.0610208132608652</v>
       </c>
       <c r="B7" t="n">
-        <v>0.160411919149578</v>
+        <v>0.179872536410101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.907214657445772</v>
+        <v>0.991964358036288</v>
       </c>
       <c r="D7" t="n">
-        <v>1.43632275601396</v>
+        <v>1.55388185400629</v>
       </c>
       <c r="E7" t="n">
-        <v>0.639685105720044</v>
+        <v>0.689201860850838</v>
       </c>
       <c r="F7" t="n">
-        <v>0.480296821631108</v>
+        <v>0.516519578177333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.411350939797721</v>
+        <v>0.44195187252474</v>
       </c>
       <c r="H7" t="n">
-        <v>0.37270769958128</v>
+        <v>0.400214997730835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.65576668971552</v>
+        <v>-1.8905450391766</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8597183561383</v>
+        <v>-13.900440096684</v>
       </c>
       <c r="C8" t="n">
-        <v>80.4854202349529</v>
+        <v>-74.6915275795146</v>
       </c>
       <c r="D8" t="n">
-        <v>101.122845496117</v>
+        <v>-115.984643579258</v>
       </c>
       <c r="E8" t="n">
-        <v>39.7908444705027</v>
+        <v>-51.8947203564146</v>
       </c>
       <c r="F8" t="n">
-        <v>27.8322555596292</v>
+        <v>-39.301932218565</v>
       </c>
       <c r="G8" t="n">
-        <v>22.8173389828524</v>
+        <v>-33.9221437874918</v>
       </c>
       <c r="H8" t="n">
-        <v>20.0899655684112</v>
+        <v>-30.9255032049926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.189674947792097</v>
+        <v>-0.107868580202506</v>
       </c>
       <c r="B9" t="n">
-        <v>0.279759010763927</v>
+        <v>-0.596686437317182</v>
       </c>
       <c r="C9" t="n">
-        <v>0.85366597560051</v>
+        <v>-3.08151867796472</v>
       </c>
       <c r="D9" t="n">
-        <v>0.844810993605092</v>
+        <v>-4.67696540313361</v>
       </c>
       <c r="E9" t="n">
-        <v>0.273868009146366</v>
+        <v>-2.06016282922353</v>
       </c>
       <c r="F9" t="n">
-        <v>0.166792979210063</v>
+        <v>-1.54286675374313</v>
       </c>
       <c r="G9" t="n">
-        <v>0.124461169949302</v>
+        <v>-1.32076952265583</v>
       </c>
       <c r="H9" t="n">
-        <v>0.102880430153758</v>
+        <v>-1.19671583429935</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0147124342511053</v>
+        <v>-0.133290366586269</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.194920833289008</v>
+        <v>-0.620781590943681</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.16599531244835</v>
+        <v>-3.08739382417708</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.87200379575835</v>
+        <v>-4.57674169191445</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.83990688305573</v>
+        <v>-1.9844390758207</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.631837595378753</v>
+        <v>-1.47056762322666</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.540824004022299</v>
+        <v>-1.25000505499395</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.489326777500812</v>
+        <v>-1.12715598387384</v>
       </c>
     </row>
     <row r="11">
@@ -3259,158 +3259,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.50436456795777</v>
+        <v>5.28680248607566</v>
       </c>
       <c r="B5" t="n">
-        <v>10.1346198028912</v>
+        <v>17.6453071460935</v>
       </c>
       <c r="C5" t="n">
-        <v>76.7659007348892</v>
+        <v>109.080210759559</v>
       </c>
       <c r="D5" t="n">
-        <v>134.799517540242</v>
+        <v>179.478629024468</v>
       </c>
       <c r="E5" t="n">
-        <v>62.6410295125774</v>
+        <v>81.4483409870659</v>
       </c>
       <c r="F5" t="n">
-        <v>47.9981567751922</v>
+        <v>61.75399041987</v>
       </c>
       <c r="G5" t="n">
-        <v>41.5594036190723</v>
+        <v>53.1796196692843</v>
       </c>
       <c r="H5" t="n">
-        <v>37.9003840176929</v>
+        <v>48.3455498917212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.75411873670997</v>
+        <v>6.60962810847149</v>
       </c>
       <c r="B6" t="n">
-        <v>15.7663389869718</v>
+        <v>20.710655864529</v>
       </c>
       <c r="C6" t="n">
-        <v>97.9347969646755</v>
+        <v>119.347288707887</v>
       </c>
       <c r="D6" t="n">
-        <v>160.821498646216</v>
+        <v>190.471512441627</v>
       </c>
       <c r="E6" t="n">
-        <v>72.7166587945757</v>
+        <v>85.2009062019841</v>
       </c>
       <c r="F6" t="n">
-        <v>54.9914271586871</v>
+        <v>64.1230786494806</v>
       </c>
       <c r="G6" t="n">
-        <v>47.2794277068971</v>
+        <v>54.9935335177672</v>
       </c>
       <c r="H6" t="n">
-        <v>42.936910842792</v>
+        <v>49.8710160458135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.66669483187283</v>
+        <v>7.59362337822921</v>
       </c>
       <c r="B7" t="n">
-        <v>19.9621675672105</v>
+        <v>22.3839084501536</v>
       </c>
       <c r="C7" t="n">
-        <v>112.896666952006</v>
+        <v>123.443188266804</v>
       </c>
       <c r="D7" t="n">
-        <v>178.740555490846</v>
+        <v>193.369982191892</v>
       </c>
       <c r="E7" t="n">
-        <v>79.6044417293281</v>
+        <v>85.7664636572855</v>
       </c>
       <c r="F7" t="n">
-        <v>59.7696585529817</v>
+        <v>64.2773331681563</v>
       </c>
       <c r="G7" t="n">
-        <v>51.1898145269039</v>
+        <v>54.9978915703566</v>
       </c>
       <c r="H7" t="n">
-        <v>46.3809272532516</v>
+        <v>49.8040226061014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.92767212921319</v>
+        <v>1.16060500402165</v>
       </c>
       <c r="B8" t="n">
-        <v>-12.8057745279428</v>
+        <v>8.5334757966629</v>
       </c>
       <c r="C8" t="n">
-        <v>-49.4099741290246</v>
+        <v>45.8531052529492</v>
       </c>
       <c r="D8" t="n">
-        <v>-62.0792829959861</v>
+        <v>71.2029361577036</v>
       </c>
       <c r="E8" t="n">
-        <v>-24.4275868861745</v>
+        <v>31.8581524797689</v>
       </c>
       <c r="F8" t="n">
-        <v>-17.0862129207902</v>
+        <v>24.1274438087192</v>
       </c>
       <c r="G8" t="n">
-        <v>-14.0075572140247</v>
+        <v>20.8247933855371</v>
       </c>
       <c r="H8" t="n">
-        <v>-12.3332235340322</v>
+        <v>18.985156675894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.04458611139491</v>
+        <v>2.30016544842367</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.96551849701105</v>
+        <v>12.7236079689136</v>
       </c>
       <c r="C9" t="n">
-        <v>-18.2033820959252</v>
+        <v>65.7096142214909</v>
       </c>
       <c r="D9" t="n">
-        <v>-18.014560442817</v>
+        <v>99.7305629087242</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.83990009773404</v>
+        <v>43.9304508227561</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.55665613748127</v>
+        <v>32.8997451511751</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.65398211648214</v>
+        <v>28.1637935313566</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.19379925381776</v>
+        <v>25.5185004611094</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.236515980530325</v>
+        <v>2.14276585440165</v>
       </c>
       <c r="B10" t="n">
-        <v>3.1335325768864</v>
+        <v>9.97963791520016</v>
       </c>
       <c r="C10" t="n">
-        <v>18.7444524754131</v>
+        <v>49.6327096621454</v>
       </c>
       <c r="D10" t="n">
-        <v>30.0941914678064</v>
+        <v>73.5753533658676</v>
       </c>
       <c r="E10" t="n">
-        <v>13.5022795418896</v>
+        <v>31.9016925282208</v>
       </c>
       <c r="F10" t="n">
-        <v>10.1573734064913</v>
+        <v>23.6407339130486</v>
       </c>
       <c r="G10" t="n">
-        <v>8.69424579389782</v>
+        <v>20.094986744124</v>
       </c>
       <c r="H10" t="n">
-        <v>7.86638027433522</v>
+        <v>18.1200743661108</v>
       </c>
     </row>
     <row r="11">
@@ -3559,158 +3559,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.147315562821046</v>
+        <v>0.310988381533863</v>
       </c>
       <c r="B5" t="n">
-        <v>0.596154106052425</v>
+        <v>1.03795924388786</v>
       </c>
       <c r="C5" t="n">
-        <v>4.51564121969938</v>
+        <v>6.41648298585645</v>
       </c>
       <c r="D5" t="n">
-        <v>7.92938338472016</v>
+        <v>10.557566413204</v>
       </c>
       <c r="E5" t="n">
-        <v>3.68476644191633</v>
+        <v>4.79107888159213</v>
       </c>
       <c r="F5" t="n">
-        <v>2.82342098677602</v>
+        <v>3.63258767175707</v>
       </c>
       <c r="G5" t="n">
-        <v>2.44467080112191</v>
+        <v>3.12821292172261</v>
       </c>
       <c r="H5" t="n">
-        <v>2.22943435398194</v>
+        <v>2.84385587598361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.279654043335882</v>
+        <v>0.388801653439501</v>
       </c>
       <c r="B6" t="n">
-        <v>0.927431705115993</v>
+        <v>1.21827387438406</v>
       </c>
       <c r="C6" t="n">
-        <v>5.76087040968681</v>
+        <v>7.02042874752276</v>
       </c>
       <c r="D6" t="n">
-        <v>9.46008815565982</v>
+        <v>11.2042066142134</v>
       </c>
       <c r="E6" t="n">
-        <v>4.277450517328</v>
+        <v>5.01181801188144</v>
       </c>
       <c r="F6" t="n">
-        <v>3.23478983286396</v>
+        <v>3.77194580291063</v>
       </c>
       <c r="G6" t="n">
-        <v>2.78114280628807</v>
+        <v>3.23491373633926</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5257006378113</v>
+        <v>2.93358917916551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.392158519521932</v>
+        <v>0.446683728131131</v>
       </c>
       <c r="B7" t="n">
-        <v>1.17424515101238</v>
+        <v>1.31670049706786</v>
       </c>
       <c r="C7" t="n">
-        <v>6.64098040894153</v>
+        <v>7.26136401569439</v>
       </c>
       <c r="D7" t="n">
-        <v>10.514150322991</v>
+        <v>11.3747048348172</v>
       </c>
       <c r="E7" t="n">
-        <v>4.68261421937225</v>
+        <v>5.0450860974874</v>
       </c>
       <c r="F7" t="n">
-        <v>3.51586226782246</v>
+        <v>3.78101959812685</v>
       </c>
       <c r="G7" t="n">
-        <v>3.01116556040612</v>
+        <v>3.23517009237393</v>
       </c>
       <c r="H7" t="n">
-        <v>2.72828983842657</v>
+        <v>2.92964838859421</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.348686595836071</v>
+        <v>-0.0682708825895092</v>
       </c>
       <c r="B8" t="n">
-        <v>0.753280854584874</v>
+        <v>-0.501969164509584</v>
       </c>
       <c r="C8" t="n">
-        <v>2.90646906641322</v>
+        <v>-2.69724148546761</v>
       </c>
       <c r="D8" t="n">
-        <v>3.65172252917567</v>
+        <v>-4.1884080092767</v>
       </c>
       <c r="E8" t="n">
-        <v>1.43691687565733</v>
+        <v>-1.87400896939818</v>
       </c>
       <c r="F8" t="n">
-        <v>1.00507134828178</v>
+        <v>-1.4192614005129</v>
       </c>
       <c r="G8" t="n">
-        <v>0.823973953766159</v>
+        <v>-1.22498784620807</v>
       </c>
       <c r="H8" t="n">
-        <v>0.725483737296015</v>
+        <v>-1.11677392211142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.178437622561541</v>
+        <v>-0.101477887430457</v>
       </c>
       <c r="B9" t="n">
-        <v>0.263184639574018</v>
+        <v>-0.561335645687366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.803090386584942</v>
+        <v>-2.8989535685952</v>
       </c>
       <c r="D9" t="n">
-        <v>0.794760019536049</v>
+        <v>-4.39987777538491</v>
       </c>
       <c r="E9" t="n">
-        <v>0.257642651370621</v>
+        <v>-1.93810812453337</v>
       </c>
       <c r="F9" t="n">
-        <v>0.156911300182998</v>
+        <v>-1.45145934490479</v>
       </c>
       <c r="G9" t="n">
-        <v>0.117087446315389</v>
+        <v>-1.24252030285397</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0967852611978429</v>
+        <v>-1.12581619681366</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.013912704737078</v>
+        <v>-0.126045050258921</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1843254456992</v>
+        <v>-0.587037524423541</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.10261485149489</v>
+        <v>-2.9195711565968</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.7702465569298</v>
+        <v>-4.32796196269811</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.794251737758215</v>
+        <v>-1.87657014871888</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.597492553323018</v>
+        <v>-1.39063140664992</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.511426223170461</v>
+        <v>-1.18205804377201</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.462728251431485</v>
+        <v>-1.06588672741829</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_8.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">p_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_median</t>
   </si>
   <si>
     <t xml:space="preserve">n_viol</t>
@@ -472,10 +478,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>2.95976760997378</v>
@@ -490,39 +502,45 @@
         <v>20.9549773885168</v>
       </c>
       <c r="F2" t="n">
+        <v>0.00588469586149163</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00588469586149163</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.595833333333333</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.00833333333333333</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>305.958941322087</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>219.986816410931</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>172.032128026305</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>143.781143146268</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>125.127863454262</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>111.924950718939</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>102.155619670662</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>2.81362776413736</v>
@@ -537,39 +555,45 @@
         <v>23.0466499030855</v>
       </c>
       <c r="F3" t="n">
+        <v>0.00588276835976525</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00588276835976525</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.591666666666667</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.00833333333333333</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>320.230815000711</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>234.886769975759</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>184.516741111159</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>153.477532364993</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>132.784947783905</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>118.233936086707</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>107.566109931883</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>2.67020411749553</v>
@@ -584,39 +608,45 @@
         <v>23.1284587678123</v>
       </c>
       <c r="F4" t="n">
+        <v>0.00586072931587789</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00586072931587789</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5875</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.00833333333333333</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>330.83460335654</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>242.607747121165</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>188.575514578095</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>154.598681934824</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>132.033821271404</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>116.341275831496</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>104.956497497692</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>2.77188149559079</v>
@@ -631,39 +661,45 @@
         <v>28.2524765584564</v>
       </c>
       <c r="F5" t="n">
+        <v>0.00571743939969209</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00571743939969209</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>297.216762939616</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>188.88876163263</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>130.412949014979</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96.671736245233</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74.9946715363091</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>59.9962744177698</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>49.0886568390619</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>2.67983643363489</v>
@@ -678,39 +714,45 @@
         <v>28.2675224786047</v>
       </c>
       <c r="F6" t="n">
+        <v>0.00569116796370633</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00569116796370633</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>307.224346263849</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>200.100040166797</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>139.771055953038</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>103.976596989415</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>80.9258040028391</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>65.1175728470531</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>53.731219933595</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>2.59077158888798</v>
@@ -725,39 +767,45 @@
         <v>28.2863298787901</v>
       </c>
       <c r="F7" t="n">
+        <v>0.0056668947830115</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0056668947830115</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>314.668573595124</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>206.219833547116</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>143.504334912525</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>105.902653793024</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>81.8196981772802</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>65.4510274707899</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>53.7423740102523</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>2.49781598749639</v>
@@ -772,39 +820,45 @@
         <v>5.96030900372935</v>
       </c>
       <c r="F8" t="n">
+        <v>0.0053232654997856</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0053232654997856</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>266.000807930288</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>155.562935242816</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>72.7835029649257</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>24.721654691844</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-3.38530595420321</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-21.3416730890296</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-33.7208561709312</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
         <v>2.43938439837903</v>
@@ -819,39 +873,45 @@
         <v>3.21475956370415</v>
       </c>
       <c r="F9" t="n">
+        <v>0.00532026758871404</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00532026758871404</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.579166666666667</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>270.271568685561</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>159.254117451636</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>75.9090207918885</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>27.1105522435488</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-1.66299881454391</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-20.1584247153941</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-32.9580172322294</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
         <v>2.38326774106509</v>
@@ -866,39 +926,45 @@
         <v>3.19992536617222</v>
       </c>
       <c r="F10" t="n">
+        <v>0.0052952298841316</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0052952298841316</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>273.431157313886</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>160.852162605097</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>76.2284892037397</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>26.2981452880862</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-3.31648855059343</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-22.3938021710369</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-35.5887361600515</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
         <v>2.3032470842203</v>
@@ -913,33 +979,39 @@
         <v>6.06990646450932</v>
       </c>
       <c r="F11" t="n">
+        <v>0.00519358975597221</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00519358975597221</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.566666666666667</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.00833333333333333</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>257.220473555428</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>124.3524000611</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>30.9898919142668</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-22.5932774757253</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-53.7388405830577</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-73.4983798489656</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>-87.0201996341448</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>-96.8187561851092</v>
       </c>
     </row>
@@ -1000,6 +1072,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1015,33 +1093,39 @@
         <v>14.8850709240075</v>
       </c>
       <c r="E2" t="n">
+        <v>0.000691106105519416</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000691106105519416</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0291666666666667</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>48.7384677666593</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>95.6344163498311</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>141.042236112038</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>166.374420621993</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>178.86670403732</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>185.423330567905</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>189.175819304807</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>191.49661822277</v>
       </c>
     </row>
@@ -1059,33 +1143,39 @@
         <v>16.9767434385762</v>
       </c>
       <c r="E3" t="n">
+        <v>0.000689178603793044</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000689178603793044</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.025</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>63.0103414452833</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>110.534369914659</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>153.526849196892</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>176.070809840718</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>186.523788366962</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>191.732315935673</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>194.586309566028</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>196.283890100564</v>
       </c>
     </row>
@@ -1103,33 +1193,39 @@
         <v>17.058552303303</v>
       </c>
       <c r="E4" t="n">
+        <v>0.000667139559905677</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000667139559905677</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>73.6141298011119</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>118.255347060064</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>157.585622663829</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>177.191959410549</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>185.772661854462</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>189.839655680462</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>191.976697131837</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>193.202523601104</v>
       </c>
     </row>
@@ -1147,33 +1243,39 @@
         <v>22.1825700939471</v>
       </c>
       <c r="E5" t="n">
+        <v>0.000523849643719883</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000523849643719883</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>39.9962893841882</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>64.5363615715299</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>99.4230571007118</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>119.265013720958</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>128.733512119367</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>133.494654266735</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>136.108856473207</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>137.669294341224</v>
       </c>
     </row>
@@ -1191,33 +1293,39 @@
         <v>22.1976160140954</v>
       </c>
       <c r="E6" t="n">
+        <v>0.000497578207734117</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000497578207734117</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>50.0038727084208</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>75.7476401056969</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>108.781164038771</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>126.56987446514</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>134.664644585897</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>138.615952696019</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>140.75141956774</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>142.01322774245</v>
       </c>
     </row>
@@ -1235,33 +1343,39 @@
         <v>22.2164234142808</v>
       </c>
       <c r="E7" t="n">
+        <v>0.000473305027039293</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.000473305027039293</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>57.4481000396968</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>81.8674334860162</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>112.514442998258</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.49593126875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>135.558538760338</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>138.949407319755</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>140.762573644397</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>141.8224565217</v>
       </c>
     </row>
@@ -1279,33 +1393,39 @@
         <v>-0.109597460779962</v>
       </c>
       <c r="E8" t="n">
+        <v>0.000129675743813392</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.000129675743813392</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>-0.00416666666666667</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>8.78033437486027</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>31.210535181716</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>41.7936110506589</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>47.3149321675693</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>50.3535346288545</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>52.156706759936</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>53.2993434632136</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>54.0623310393967</v>
       </c>
     </row>
@@ -1323,33 +1443,39 @@
         <v>-2.85514690080516</v>
       </c>
       <c r="E9" t="n">
+        <v>0.000126677832741829</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.000126677832741829</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0125000000000001</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>-0.00416666666666667</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>13.0510951301332</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>34.9017173905357</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>44.9191288776217</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>49.7038297192741</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>52.0758417685138</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>53.3399551335716</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>54.0621824019155</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>54.5000619342742</v>
       </c>
     </row>
@@ -1367,33 +1493,39 @@
         <v>-2.8699810983371</v>
       </c>
       <c r="E10" t="n">
+        <v>0.000101640128159395</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.000101640128159395</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>-0.00416666666666667</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>16.2106837584587</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>36.499762543997</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>45.2385972894729</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>48.8914227638114</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>50.4223520324643</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>51.1045776779287</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>51.4314634740933</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>51.5989135914275</v>
       </c>
     </row>
@@ -1438,6 +1570,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,6 +1636,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1513,33 +1657,39 @@
         <v>2.45227352530724</v>
       </c>
       <c r="E2" t="n">
+        <v>0.133069059743254</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.133069059743254</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0514705882352941</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.189481292421914</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.769059674785861</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>4.55123356035671</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7.36389046700948</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>3.3284436749406</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2.52282201252514</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>2.17392996224038</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.97788760946944</v>
       </c>
     </row>
@@ -1557,33 +1707,39 @@
         <v>2.7968706829074</v>
       </c>
       <c r="E3" t="n">
+        <v>0.132697928826693</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.132697928826693</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0441176470588236</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.244966275717961</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.888880068742929</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.95409437443739</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7.79306189772123</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.47093064054248</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>2.60866044026644</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>2.23610506967484</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>2.02733331675203</v>
       </c>
     </row>
@@ -1601,33 +1757,39 @@
         <v>2.8103484630355</v>
       </c>
       <c r="E4" t="n">
+        <v>0.128454420016236</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.128454420016236</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.036764705882353</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.286190787162395</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.950969559107504</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>5.08506525610956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7.8426850465112</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.45695329186225</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>2.58290939297669</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>2.20611648719442</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.99550718490658</v>
       </c>
     </row>
@@ -1645,33 +1807,39 @@
         <v>3.65451596719791</v>
       </c>
       <c r="E5" t="n">
+        <v>0.100864655918866</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.100864655918866</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0294117647058824</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.155494190766932</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.518979621943928</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>3.20824149292823</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>5.27878320660202</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.39553944079606</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.81629383587854</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.56410646086131</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.42192793799181</v>
       </c>
     </row>
@@ -1689,33 +1857,39 @@
         <v>3.65699474018004</v>
       </c>
       <c r="E6" t="n">
+        <v>0.0958062209595863</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0958062209595863</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0294117647058824</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.19440082671975</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.609136937192032</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>3.51021437376138</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>5.60210330710671</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.50590900594072</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.88597290145532</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1.61745686816963</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>1.46679458958276</v>
       </c>
     </row>
@@ -1733,33 +1907,39 @@
         <v>3.6600932064077</v>
       </c>
       <c r="E7" t="n">
+        <v>0.091132540165505</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.091132540165505</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0294117647058824</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>0.5</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.223341864065566</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.658350248533931</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>3.6306820078472</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>5.68735241740861</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.5225430487437</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.89050979906343</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.61758504618697</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.4648241942971</v>
       </c>
     </row>
@@ -1777,33 +1957,39 @@
         <v>-0.0180558730881237</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0249684225952339</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0249684225952339</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0294117647058824</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.0341354412947546</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.250984582254792</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1.34862074273381</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2.09420400463835</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.937004484699089</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.709630700256449</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.612493923104034</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.558386961055708</v>
       </c>
     </row>
@@ -1821,33 +2007,39 @@
         <v>-0.470377413144532</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0243911896576274</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0243911896576274</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0220588235294119</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.0507389437152283</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.280667822843683</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>1.4494767842976</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2.19993888769246</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.969054062266684</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.725729672452396</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.621260151426987</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.562908098406829</v>
       </c>
     </row>
@@ -1865,33 +2057,39 @@
         <v>-0.472821305421731</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0195703035732687</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0195703035732687</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0294117647058824</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>-0.5</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.0630225251294605</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.29351876221177</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>1.4597855782984</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2.16398098134905</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.938285074359438</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.695315703324961</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.591029021886003</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.532943363709143</v>
       </c>
     </row>
@@ -1936,6 +2134,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1955,28 +2159,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2255,28 +2459,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2555,28 +2759,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2855,28 +3059,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -3155,262 +3359,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.68135082419719</v>
+        <v>1.42393200032753</v>
       </c>
       <c r="B2" t="n">
-        <v>14.941730824411</v>
+        <v>5.77940263701947</v>
       </c>
       <c r="C2" t="n">
-        <v>88.4239663155019</v>
+        <v>34.2020419257336</v>
       </c>
       <c r="D2" t="n">
-        <v>143.06987193047</v>
+        <v>55.3388630025456</v>
       </c>
       <c r="E2" t="n">
-        <v>64.6669056845602</v>
+        <v>25.0129044374595</v>
       </c>
       <c r="F2" t="n">
-        <v>49.014827671917</v>
+        <v>18.9587423056323</v>
       </c>
       <c r="G2" t="n">
-        <v>42.2363535520988</v>
+        <v>16.3368552121343</v>
       </c>
       <c r="H2" t="n">
-        <v>38.4275306982634</v>
+        <v>14.863617532773</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.55256891627377</v>
+        <v>1.84604445513157</v>
       </c>
       <c r="B3" t="n">
-        <v>20.1479482248397</v>
+        <v>6.69852255119843</v>
       </c>
       <c r="C3" t="n">
-        <v>112.292805820581</v>
+        <v>37.333622447925</v>
       </c>
       <c r="D3" t="n">
-        <v>176.642736348348</v>
+        <v>58.7278337094406</v>
       </c>
       <c r="E3" t="n">
-        <v>78.6744278522961</v>
+        <v>26.1566301089416</v>
       </c>
       <c r="F3" t="n">
-        <v>59.1296366460394</v>
+        <v>19.6586372020427</v>
       </c>
       <c r="G3" t="n">
-        <v>50.685048245963</v>
+        <v>16.8510924733064</v>
       </c>
       <c r="H3" t="n">
-        <v>45.952888513046</v>
+        <v>15.2778067802383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.78438941081714</v>
+        <v>2.22795593274425</v>
       </c>
       <c r="B4" t="n">
-        <v>25.8663720077241</v>
+        <v>7.40316727900296</v>
       </c>
       <c r="C4" t="n">
-        <v>138.31377496618</v>
+        <v>39.5865339274959</v>
       </c>
       <c r="D4" t="n">
-        <v>213.321033265104</v>
+        <v>61.0542248800773</v>
       </c>
       <c r="E4" t="n">
-        <v>94.029129538653</v>
+        <v>26.9119061175575</v>
       </c>
       <c r="F4" t="n">
-        <v>70.2551354889658</v>
+        <v>20.1075945276948</v>
       </c>
       <c r="G4" t="n">
-        <v>60.0063684516882</v>
+        <v>17.1743135574126</v>
       </c>
       <c r="H4" t="n">
-        <v>54.277795429459</v>
+        <v>15.5347490935256</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.28680248607566</v>
+        <v>1.54161226596568</v>
       </c>
       <c r="B5" t="n">
-        <v>17.6453071460935</v>
+        <v>5.14530701776635</v>
       </c>
       <c r="C5" t="n">
-        <v>109.080210759559</v>
+        <v>31.8073904451615</v>
       </c>
       <c r="D5" t="n">
-        <v>179.478629024468</v>
+        <v>52.3353116957858</v>
       </c>
       <c r="E5" t="n">
-        <v>81.4483409870659</v>
+        <v>23.7500382961005</v>
       </c>
       <c r="F5" t="n">
-        <v>61.75399041987</v>
+        <v>18.0072377120836</v>
       </c>
       <c r="G5" t="n">
-        <v>53.1796196692843</v>
+        <v>15.5069825660185</v>
       </c>
       <c r="H5" t="n">
-        <v>48.3455498917212</v>
+        <v>14.0973855017717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.60962810847149</v>
+        <v>2.02910442320603</v>
       </c>
       <c r="B6" t="n">
-        <v>20.710655864529</v>
+        <v>6.35801027418651</v>
       </c>
       <c r="C6" t="n">
-        <v>119.347288707887</v>
+        <v>36.6386894149816</v>
       </c>
       <c r="D6" t="n">
-        <v>190.471512441627</v>
+        <v>58.4732729356878</v>
       </c>
       <c r="E6" t="n">
-        <v>85.2009062019841</v>
+        <v>26.1560155576722</v>
       </c>
       <c r="F6" t="n">
-        <v>64.1230786494806</v>
+        <v>19.6852864309393</v>
       </c>
       <c r="G6" t="n">
-        <v>54.9935335177672</v>
+        <v>16.8825870801429</v>
       </c>
       <c r="H6" t="n">
-        <v>49.8710160458135</v>
+        <v>15.3100140564097</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.59362337822921</v>
+        <v>2.45073673640564</v>
       </c>
       <c r="B7" t="n">
-        <v>22.3839084501536</v>
+        <v>7.22409632539933</v>
       </c>
       <c r="C7" t="n">
-        <v>123.443188266804</v>
+        <v>39.8395787196708</v>
       </c>
       <c r="D7" t="n">
-        <v>193.369982191892</v>
+        <v>62.4074826300228</v>
       </c>
       <c r="E7" t="n">
-        <v>85.7664636572855</v>
+        <v>27.6799378593259</v>
       </c>
       <c r="F7" t="n">
-        <v>64.2773331681563</v>
+        <v>20.744618723785</v>
       </c>
       <c r="G7" t="n">
-        <v>54.9978915703566</v>
+        <v>17.7498075138615</v>
       </c>
       <c r="H7" t="n">
-        <v>49.8040226061014</v>
+        <v>16.0735582662005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.16060500402165</v>
+        <v>1.3671444867835</v>
       </c>
       <c r="B8" t="n">
-        <v>8.5334757966629</v>
+        <v>10.0520800341909</v>
       </c>
       <c r="C8" t="n">
-        <v>45.8531052529492</v>
+        <v>54.0130533913358</v>
       </c>
       <c r="D8" t="n">
-        <v>71.2029361577036</v>
+        <v>83.8741012433079</v>
       </c>
       <c r="E8" t="n">
-        <v>31.8581524797689</v>
+        <v>37.5275803317246</v>
       </c>
       <c r="F8" t="n">
-        <v>24.1274438087192</v>
+        <v>28.4211266270343</v>
       </c>
       <c r="G8" t="n">
-        <v>20.8247933855371</v>
+        <v>24.5307416104432</v>
       </c>
       <c r="H8" t="n">
-        <v>18.985156675894</v>
+        <v>22.3637259793214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.30016544842367</v>
+        <v>2.08021602994512</v>
       </c>
       <c r="B9" t="n">
-        <v>12.7236079689136</v>
+        <v>11.5069345441261</v>
       </c>
       <c r="C9" t="n">
-        <v>65.7096142214909</v>
+        <v>59.4262438463854</v>
       </c>
       <c r="D9" t="n">
-        <v>99.7305629087242</v>
+        <v>90.1939970363238</v>
       </c>
       <c r="E9" t="n">
-        <v>43.9304508227561</v>
+        <v>39.7296759964986</v>
       </c>
       <c r="F9" t="n">
-        <v>32.8997451511751</v>
+        <v>29.7537628397495</v>
       </c>
       <c r="G9" t="n">
-        <v>28.1637935313566</v>
+        <v>25.4706785584242</v>
       </c>
       <c r="H9" t="n">
-        <v>25.5185004611094</v>
+        <v>23.0783371499389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.14276585440165</v>
+        <v>3.22031413020817</v>
       </c>
       <c r="B10" t="n">
-        <v>9.97963791520016</v>
+        <v>14.9981711378607</v>
       </c>
       <c r="C10" t="n">
-        <v>49.6327096621454</v>
+        <v>74.5918719570777</v>
       </c>
       <c r="D10" t="n">
-        <v>73.5753533658676</v>
+        <v>110.574727328444</v>
       </c>
       <c r="E10" t="n">
-        <v>31.9016925282208</v>
+        <v>47.9443290619698</v>
       </c>
       <c r="F10" t="n">
-        <v>23.6407339130486</v>
+        <v>35.5291220047655</v>
       </c>
       <c r="G10" t="n">
-        <v>20.094986744124</v>
+        <v>30.2002991253184</v>
       </c>
       <c r="H10" t="n">
-        <v>18.1200743661108</v>
+        <v>27.2322481720262</v>
       </c>
     </row>
     <row r="11">
@@ -3455,262 +3659,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H2" t="e">
-        <v>#NUM!</v>
+      <c r="A2" t="n">
+        <v>1.42393200032753</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.77940263701947</v>
+      </c>
+      <c r="C2" t="n">
+        <v>34.2020419257336</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.3388630025456</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25.0129044374595</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.9587423056323</v>
+      </c>
+      <c r="G2" t="n">
+        <v>16.3368552121343</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14.863617532773</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
+      <c r="A3" t="n">
+        <v>1.84604445513157</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.69852255119843</v>
+      </c>
+      <c r="C3" t="n">
+        <v>37.333622447925</v>
+      </c>
+      <c r="D3" t="n">
+        <v>58.7278337094406</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.1566301089416</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.6586372020427</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16.8510924733064</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15.2778067802383</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
+      <c r="A4" t="n">
+        <v>2.22795593274425</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.40316727900296</v>
+      </c>
+      <c r="C4" t="n">
+        <v>39.5865339274959</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61.0542248800773</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26.9119061175575</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.1075945276948</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17.1743135574126</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15.5347490935256</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.310988381533863</v>
+        <v>1.54161226596568</v>
       </c>
       <c r="B5" t="n">
-        <v>1.03795924388786</v>
+        <v>5.14530701776635</v>
       </c>
       <c r="C5" t="n">
-        <v>6.41648298585645</v>
+        <v>31.8073904451615</v>
       </c>
       <c r="D5" t="n">
-        <v>10.557566413204</v>
+        <v>52.3353116957858</v>
       </c>
       <c r="E5" t="n">
-        <v>4.79107888159213</v>
+        <v>23.7500382961005</v>
       </c>
       <c r="F5" t="n">
-        <v>3.63258767175707</v>
+        <v>18.0072377120836</v>
       </c>
       <c r="G5" t="n">
-        <v>3.12821292172261</v>
+        <v>15.5069825660185</v>
       </c>
       <c r="H5" t="n">
-        <v>2.84385587598361</v>
+        <v>14.0973855017717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.388801653439501</v>
+        <v>2.02910442320603</v>
       </c>
       <c r="B6" t="n">
-        <v>1.21827387438406</v>
+        <v>6.35801027418651</v>
       </c>
       <c r="C6" t="n">
-        <v>7.02042874752276</v>
+        <v>36.6386894149816</v>
       </c>
       <c r="D6" t="n">
-        <v>11.2042066142134</v>
+        <v>58.4732729356878</v>
       </c>
       <c r="E6" t="n">
-        <v>5.01181801188144</v>
+        <v>26.1560155576722</v>
       </c>
       <c r="F6" t="n">
-        <v>3.77194580291063</v>
+        <v>19.6852864309393</v>
       </c>
       <c r="G6" t="n">
-        <v>3.23491373633926</v>
+        <v>16.8825870801429</v>
       </c>
       <c r="H6" t="n">
-        <v>2.93358917916551</v>
+        <v>15.3100140564097</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.446683728131131</v>
+        <v>2.45073673640564</v>
       </c>
       <c r="B7" t="n">
-        <v>1.31670049706786</v>
+        <v>7.22409632539933</v>
       </c>
       <c r="C7" t="n">
-        <v>7.26136401569439</v>
+        <v>39.8395787196708</v>
       </c>
       <c r="D7" t="n">
-        <v>11.3747048348172</v>
+        <v>62.4074826300228</v>
       </c>
       <c r="E7" t="n">
-        <v>5.0450860974874</v>
+        <v>27.6799378593259</v>
       </c>
       <c r="F7" t="n">
-        <v>3.78101959812685</v>
+        <v>20.744618723785</v>
       </c>
       <c r="G7" t="n">
-        <v>3.23517009237393</v>
+        <v>17.7498075138615</v>
       </c>
       <c r="H7" t="n">
-        <v>2.92964838859421</v>
+        <v>16.0735582662005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0682708825895092</v>
+        <v>1.3671444867835</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.501969164509584</v>
+        <v>10.0520800341909</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.69724148546761</v>
+        <v>54.0130533913358</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.1884080092767</v>
+        <v>83.8741012433079</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.87400896939818</v>
+        <v>37.5275803317246</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.4192614005129</v>
+        <v>28.4211266270343</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.22498784620807</v>
+        <v>24.5307416104432</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.11677392211142</v>
+        <v>22.3637259793214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.101477887430457</v>
+        <v>2.08021602994512</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.561335645687366</v>
+        <v>11.5069345441261</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.8989535685952</v>
+        <v>59.4262438463854</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.39987777538491</v>
+        <v>90.1939970363238</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.93810812453337</v>
+        <v>39.7296759964986</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.45145934490479</v>
+        <v>29.7537628397495</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.24252030285397</v>
+        <v>25.4706785584242</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.12581619681366</v>
+        <v>23.0783371499389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.126045050258921</v>
+        <v>3.22031413020817</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.587037524423541</v>
+        <v>14.9981711378607</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.9195711565968</v>
+        <v>74.5918719570777</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.32796196269811</v>
+        <v>110.574727328444</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.87657014871888</v>
+        <v>47.9443290619698</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.39063140664992</v>
+        <v>35.5291220047655</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.18205804377201</v>
+        <v>30.2002991253184</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.06588672741829</v>
+        <v>27.2322481720262</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_8.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_8.xlsx
@@ -13,8 +13,10 @@
     <sheet name="elast_nmax" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="elast_pmean" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="elast_pmax" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="elast_nviol" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="elast_pviol" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nmedian" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="elast_pmedian" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nviol" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="elast_pviol" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -1021,6 +1023,606 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.68135082419719</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.941730824411</v>
+      </c>
+      <c r="C2" t="n">
+        <v>88.4239663155019</v>
+      </c>
+      <c r="D2" t="n">
+        <v>143.06987193047</v>
+      </c>
+      <c r="E2" t="n">
+        <v>64.6669056845602</v>
+      </c>
+      <c r="F2" t="n">
+        <v>49.014827671917</v>
+      </c>
+      <c r="G2" t="n">
+        <v>42.2363535520988</v>
+      </c>
+      <c r="H2" t="n">
+        <v>38.4275306982634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5.55256891627377</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20.1479482248397</v>
+      </c>
+      <c r="C3" t="n">
+        <v>112.292805820581</v>
+      </c>
+      <c r="D3" t="n">
+        <v>176.642736348348</v>
+      </c>
+      <c r="E3" t="n">
+        <v>78.6744278522961</v>
+      </c>
+      <c r="F3" t="n">
+        <v>59.1296366460394</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50.685048245963</v>
+      </c>
+      <c r="H3" t="n">
+        <v>45.952888513046</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7.78438941081714</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25.8663720077241</v>
+      </c>
+      <c r="C4" t="n">
+        <v>138.31377496618</v>
+      </c>
+      <c r="D4" t="n">
+        <v>213.321033265104</v>
+      </c>
+      <c r="E4" t="n">
+        <v>94.029129538653</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70.2551354889658</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60.0063684516882</v>
+      </c>
+      <c r="H4" t="n">
+        <v>54.277795429459</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5.28680248607566</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17.6453071460935</v>
+      </c>
+      <c r="C5" t="n">
+        <v>109.080210759559</v>
+      </c>
+      <c r="D5" t="n">
+        <v>179.478629024468</v>
+      </c>
+      <c r="E5" t="n">
+        <v>81.4483409870659</v>
+      </c>
+      <c r="F5" t="n">
+        <v>61.75399041987</v>
+      </c>
+      <c r="G5" t="n">
+        <v>53.1796196692843</v>
+      </c>
+      <c r="H5" t="n">
+        <v>48.3455498917212</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.60962810847149</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20.710655864529</v>
+      </c>
+      <c r="C6" t="n">
+        <v>119.347288707887</v>
+      </c>
+      <c r="D6" t="n">
+        <v>190.471512441627</v>
+      </c>
+      <c r="E6" t="n">
+        <v>85.2009062019841</v>
+      </c>
+      <c r="F6" t="n">
+        <v>64.1230786494806</v>
+      </c>
+      <c r="G6" t="n">
+        <v>54.9935335177672</v>
+      </c>
+      <c r="H6" t="n">
+        <v>49.8710160458135</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7.59362337822921</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22.3839084501536</v>
+      </c>
+      <c r="C7" t="n">
+        <v>123.443188266804</v>
+      </c>
+      <c r="D7" t="n">
+        <v>193.369982191892</v>
+      </c>
+      <c r="E7" t="n">
+        <v>85.7664636572855</v>
+      </c>
+      <c r="F7" t="n">
+        <v>64.2773331681563</v>
+      </c>
+      <c r="G7" t="n">
+        <v>54.9978915703566</v>
+      </c>
+      <c r="H7" t="n">
+        <v>49.8040226061014</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.16060500402165</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.5334757966629</v>
+      </c>
+      <c r="C8" t="n">
+        <v>45.8531052529492</v>
+      </c>
+      <c r="D8" t="n">
+        <v>71.2029361577036</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31.8581524797689</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24.1274438087192</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20.8247933855371</v>
+      </c>
+      <c r="H8" t="n">
+        <v>18.985156675894</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.30016544842367</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12.7236079689136</v>
+      </c>
+      <c r="C9" t="n">
+        <v>65.7096142214909</v>
+      </c>
+      <c r="D9" t="n">
+        <v>99.7305629087242</v>
+      </c>
+      <c r="E9" t="n">
+        <v>43.9304508227561</v>
+      </c>
+      <c r="F9" t="n">
+        <v>32.8997451511751</v>
+      </c>
+      <c r="G9" t="n">
+        <v>28.1637935313566</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25.5185004611094</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.14276585440165</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9.97963791520016</v>
+      </c>
+      <c r="C10" t="n">
+        <v>49.6327096621454</v>
+      </c>
+      <c r="D10" t="n">
+        <v>73.5753533658676</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31.9016925282208</v>
+      </c>
+      <c r="F10" t="n">
+        <v>23.6407339130486</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20.094986744124</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.1200743661108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.310988381533863</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.03795924388786</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.41648298585645</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.557566413204</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.79107888159213</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.63258767175707</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.12821292172261</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.84385587598361</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.388801653439501</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.21827387438406</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.02042874752276</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.2042066142134</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.01181801188144</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.77194580291063</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.23491373633926</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.93358917916551</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.446683728131131</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.31670049706786</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.26136401569439</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.3747048348172</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.0450860974874</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.78101959812685</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.23517009237393</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.92964838859421</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.0682708825895092</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.501969164509584</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.69724148546761</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-4.1884080092767</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.87400896939818</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.4192614005129</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1.22498784620807</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1.11677392211142</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.101477887430457</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.561335645687366</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.8989535685952</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-4.39987777538491</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.93810812453337</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.45145934490479</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1.24252030285397</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-1.12581619681366</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.126045050258921</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.587037524423541</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.9195711565968</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.32796196269811</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.87657014871888</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.39063140664992</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1.18205804377201</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1.06588672741829</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_8.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_8.xlsx
@@ -504,7 +504,7 @@
         <v>20.9549773885168</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00588469586149163</v>
+        <v>1.49930855185518</v>
       </c>
       <c r="G2" t="n">
         <v>0.00588469586149163</v>
@@ -557,7 +557,7 @@
         <v>23.0466499030855</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00588276835976525</v>
+        <v>1.45166966360069</v>
       </c>
       <c r="G3" t="n">
         <v>0.00588276835976525</v>
@@ -610,7 +610,7 @@
         <v>23.1284587678123</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00586072931587789</v>
+        <v>1.43761084772545</v>
       </c>
       <c r="G4" t="n">
         <v>0.00586072931587789</v>
@@ -663,7 +663,7 @@
         <v>28.2524765584564</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00571743939969209</v>
+        <v>1.46472011617009</v>
       </c>
       <c r="G5" t="n">
         <v>0.00571743939969209</v>
@@ -716,7 +716,7 @@
         <v>28.2675224786047</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00569116796370633</v>
+        <v>1.4237106026836</v>
       </c>
       <c r="G6" t="n">
         <v>0.00569116796370633</v>
@@ -769,7 +769,7 @@
         <v>28.2863298787901</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0056668947830115</v>
+        <v>1.40790530504509</v>
       </c>
       <c r="G7" t="n">
         <v>0.0056668947830115</v>
@@ -822,7 +822,7 @@
         <v>5.96030900372935</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0053232654997856</v>
+        <v>1.38699716876863</v>
       </c>
       <c r="G8" t="n">
         <v>0.0053232654997856</v>
@@ -875,7 +875,7 @@
         <v>3.21475956370415</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00532026758871404</v>
+        <v>1.38604803130011</v>
       </c>
       <c r="G9" t="n">
         <v>0.00532026758871404</v>
@@ -928,7 +928,7 @@
         <v>3.19992536617222</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0052952298841316</v>
+        <v>1.35732165369055</v>
       </c>
       <c r="G10" t="n">
         <v>0.0052952298841316</v>
@@ -981,7 +981,7 @@
         <v>6.06990646450932</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00519358975597221</v>
+        <v>1.32064032951059</v>
       </c>
       <c r="G11" t="n">
         <v>0.00519358975597221</v>
@@ -1695,7 +1695,7 @@
         <v>14.8850709240075</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000691106105519416</v>
+        <v>0.178668222344595</v>
       </c>
       <c r="F2" t="n">
         <v>0.000691106105519416</v>
@@ -1745,7 +1745,7 @@
         <v>16.9767434385762</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000689178603793044</v>
+        <v>0.131029334090103</v>
       </c>
       <c r="F3" t="n">
         <v>0.000689178603793044</v>
@@ -1795,7 +1795,7 @@
         <v>17.058552303303</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000667139559905677</v>
+        <v>0.116970518214869</v>
       </c>
       <c r="F4" t="n">
         <v>0.000667139559905677</v>
@@ -1845,7 +1845,7 @@
         <v>22.1825700939471</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000523849643719883</v>
+        <v>0.144079786659506</v>
       </c>
       <c r="F5" t="n">
         <v>0.000523849643719883</v>
@@ -1895,7 +1895,7 @@
         <v>22.1976160140954</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000497578207734117</v>
+        <v>0.103070273173011</v>
       </c>
       <c r="F6" t="n">
         <v>0.000497578207734117</v>
@@ -1945,7 +1945,7 @@
         <v>22.2164234142808</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000473305027039293</v>
+        <v>0.0872649755345036</v>
       </c>
       <c r="F7" t="n">
         <v>0.000473305027039293</v>
@@ -1995,7 +1995,7 @@
         <v>-0.109597460779962</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000129675743813392</v>
+        <v>0.0663568392580425</v>
       </c>
       <c r="F8" t="n">
         <v>0.000129675743813392</v>
@@ -2045,7 +2045,7 @@
         <v>-2.85514690080516</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000126677832741829</v>
+        <v>0.065407701789526</v>
       </c>
       <c r="F9" t="n">
         <v>0.000126677832741829</v>
@@ -2095,7 +2095,7 @@
         <v>-2.8699810983371</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000101640128159395</v>
+        <v>0.0366813241799617</v>
       </c>
       <c r="F10" t="n">
         <v>0.000101640128159395</v>
@@ -2259,7 +2259,7 @@
         <v>2.45227352530724</v>
       </c>
       <c r="E2" t="n">
-        <v>0.133069059743254</v>
+        <v>0.135289085417229</v>
       </c>
       <c r="F2" t="n">
         <v>0.133069059743254</v>
@@ -2309,7 +2309,7 @@
         <v>2.7968706829074</v>
       </c>
       <c r="E3" t="n">
-        <v>0.132697928826693</v>
+        <v>0.0992165172925329</v>
       </c>
       <c r="F3" t="n">
         <v>0.132697928826693</v>
@@ -2359,7 +2359,7 @@
         <v>2.8103484630355</v>
       </c>
       <c r="E4" t="n">
-        <v>0.128454420016236</v>
+        <v>0.0885710632948916</v>
       </c>
       <c r="F4" t="n">
         <v>0.128454420016236</v>
@@ -2409,7 +2409,7 @@
         <v>3.65451596719791</v>
       </c>
       <c r="E5" t="n">
-        <v>0.100864655918866</v>
+        <v>0.109098430087244</v>
       </c>
       <c r="F5" t="n">
         <v>0.100864655918866</v>
@@ -2459,7 +2459,7 @@
         <v>3.65699474018004</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0958062209595863</v>
+        <v>0.0780456804701757</v>
       </c>
       <c r="F6" t="n">
         <v>0.0958062209595863</v>
@@ -2509,7 +2509,7 @@
         <v>3.6600932064077</v>
       </c>
       <c r="E7" t="n">
-        <v>0.091132540165505</v>
+        <v>0.0660777757459846</v>
       </c>
       <c r="F7" t="n">
         <v>0.091132540165505</v>
@@ -2559,7 +2559,7 @@
         <v>-0.0180558730881237</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0249684225952339</v>
+        <v>0.0502459585515108</v>
       </c>
       <c r="F8" t="n">
         <v>0.0249684225952339</v>
@@ -2609,7 +2609,7 @@
         <v>-0.470377413144532</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0243911896576274</v>
+        <v>0.0495272636522962</v>
       </c>
       <c r="F9" t="n">
         <v>0.0243911896576274</v>
@@ -2659,7 +2659,7 @@
         <v>-0.472821305421731</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0195703035732687</v>
+        <v>0.027775408156402</v>
       </c>
       <c r="F10" t="n">
         <v>0.0195703035732687</v>
@@ -3987,236 +3987,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.42393200032753</v>
+        <v>1.40056599420092</v>
       </c>
       <c r="B2" t="n">
-        <v>5.77940263701947</v>
+        <v>5.68456555393288</v>
       </c>
       <c r="C2" t="n">
-        <v>34.2020419257336</v>
+        <v>33.640803663657</v>
       </c>
       <c r="D2" t="n">
-        <v>55.3388630025456</v>
+        <v>54.4307801645594</v>
       </c>
       <c r="E2" t="n">
-        <v>25.0129044374595</v>
+        <v>24.6024552880652</v>
       </c>
       <c r="F2" t="n">
-        <v>18.9587423056323</v>
+        <v>18.6476389040905</v>
       </c>
       <c r="G2" t="n">
-        <v>16.3368552121343</v>
+        <v>16.0687756557451</v>
       </c>
       <c r="H2" t="n">
-        <v>14.863617532773</v>
+        <v>14.6197130638416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.84604445513157</v>
+        <v>2.46900700007132</v>
       </c>
       <c r="B3" t="n">
-        <v>6.69852255119843</v>
+        <v>8.95899284714992</v>
       </c>
       <c r="C3" t="n">
-        <v>37.333622447925</v>
+        <v>49.932153532769</v>
       </c>
       <c r="D3" t="n">
-        <v>58.7278337094406</v>
+        <v>78.5460134096819</v>
       </c>
       <c r="E3" t="n">
-        <v>26.1566301089416</v>
+        <v>34.9833952577541</v>
       </c>
       <c r="F3" t="n">
-        <v>19.6586372020427</v>
+        <v>26.2926023957784</v>
       </c>
       <c r="G3" t="n">
-        <v>16.8510924733064</v>
+        <v>22.5376291236049</v>
       </c>
       <c r="H3" t="n">
-        <v>15.2778067802383</v>
+        <v>20.4334255230365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.22795593274425</v>
+        <v>3.23119963243008</v>
       </c>
       <c r="B4" t="n">
-        <v>7.40316727900296</v>
+        <v>10.7367973662156</v>
       </c>
       <c r="C4" t="n">
-        <v>39.5865339274959</v>
+        <v>57.4122638584473</v>
       </c>
       <c r="D4" t="n">
-        <v>61.0542248800773</v>
+        <v>88.5468092485182</v>
       </c>
       <c r="E4" t="n">
-        <v>26.9119061175575</v>
+        <v>39.0302787757278</v>
       </c>
       <c r="F4" t="n">
-        <v>20.1075945276948</v>
+        <v>29.1620005099979</v>
       </c>
       <c r="G4" t="n">
-        <v>17.1743135574126</v>
+        <v>24.9078695131987</v>
       </c>
       <c r="H4" t="n">
-        <v>15.5347490935256</v>
+        <v>22.5300127453892</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.54161226596568</v>
+        <v>1.42526515406854</v>
       </c>
       <c r="B5" t="n">
-        <v>5.14530701776635</v>
+        <v>4.75698524285738</v>
       </c>
       <c r="C5" t="n">
-        <v>31.8073904451615</v>
+        <v>29.4068529708691</v>
       </c>
       <c r="D5" t="n">
-        <v>52.3353116957858</v>
+        <v>48.3855102441041</v>
       </c>
       <c r="E5" t="n">
-        <v>23.7500382961005</v>
+        <v>21.9575977296868</v>
       </c>
       <c r="F5" t="n">
-        <v>18.0072377120836</v>
+        <v>16.6482123933963</v>
       </c>
       <c r="G5" t="n">
-        <v>15.5069825660185</v>
+        <v>14.336654153598</v>
       </c>
       <c r="H5" t="n">
-        <v>14.0973855017717</v>
+        <v>13.033440874032</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.02910442320603</v>
+        <v>2.49085952673625</v>
       </c>
       <c r="B6" t="n">
-        <v>6.35801027418651</v>
+        <v>7.80487700949456</v>
       </c>
       <c r="C6" t="n">
-        <v>36.6386894149816</v>
+        <v>44.9764080806851</v>
       </c>
       <c r="D6" t="n">
-        <v>58.4732729356878</v>
+        <v>71.779799642435</v>
       </c>
       <c r="E6" t="n">
-        <v>26.1560155576722</v>
+        <v>32.1082344448047</v>
       </c>
       <c r="F6" t="n">
-        <v>19.6852864309393</v>
+        <v>24.1649876084561</v>
       </c>
       <c r="G6" t="n">
-        <v>16.8825870801429</v>
+        <v>20.7244892789131</v>
       </c>
       <c r="H6" t="n">
-        <v>15.3100140564097</v>
+        <v>18.7940521595334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.45073673640564</v>
+        <v>3.37998459458039</v>
       </c>
       <c r="B7" t="n">
-        <v>7.22409632539933</v>
+        <v>9.96326285353118</v>
       </c>
       <c r="C7" t="n">
-        <v>39.8395787196708</v>
+        <v>54.9455844549645</v>
       </c>
       <c r="D7" t="n">
-        <v>62.4074826300228</v>
+        <v>86.0705789987827</v>
       </c>
       <c r="E7" t="n">
-        <v>27.6799378593259</v>
+        <v>38.1753625975673</v>
       </c>
       <c r="F7" t="n">
-        <v>20.744618723785</v>
+        <v>28.6103728177974</v>
       </c>
       <c r="G7" t="n">
-        <v>17.7498075138615</v>
+        <v>24.4800165853837</v>
       </c>
       <c r="H7" t="n">
-        <v>16.0735582662005</v>
+        <v>22.168182535807</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.3671444867835</v>
+        <v>0.679366903902526</v>
       </c>
       <c r="B8" t="n">
-        <v>10.0520800341909</v>
+        <v>4.99511979650044</v>
       </c>
       <c r="C8" t="n">
-        <v>54.0130533913358</v>
+        <v>26.8403824230208</v>
       </c>
       <c r="D8" t="n">
-        <v>83.8741012433079</v>
+        <v>41.6790536992428</v>
       </c>
       <c r="E8" t="n">
-        <v>37.5275803317246</v>
+        <v>18.6483552450989</v>
       </c>
       <c r="F8" t="n">
-        <v>28.4211266270343</v>
+        <v>14.1231398646511</v>
       </c>
       <c r="G8" t="n">
-        <v>24.5307416104432</v>
+        <v>12.1899141893397</v>
       </c>
       <c r="H8" t="n">
-        <v>22.3637259793214</v>
+        <v>11.1130721186912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.08021602994512</v>
+        <v>1.02446491030554</v>
       </c>
       <c r="B9" t="n">
-        <v>11.5069345441261</v>
+        <v>5.6669357874099</v>
       </c>
       <c r="C9" t="n">
-        <v>59.4262438463854</v>
+        <v>29.2662399940684</v>
       </c>
       <c r="D9" t="n">
-        <v>90.1939970363238</v>
+        <v>44.4187448581255</v>
       </c>
       <c r="E9" t="n">
-        <v>39.7296759964986</v>
+        <v>19.5660731242873</v>
       </c>
       <c r="F9" t="n">
-        <v>29.7537628397495</v>
+        <v>14.6531348379621</v>
       </c>
       <c r="G9" t="n">
-        <v>25.4706785584242</v>
+        <v>12.5438012442705</v>
       </c>
       <c r="H9" t="n">
-        <v>23.0783371499389</v>
+        <v>11.3656208095545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.22031413020817</v>
+        <v>2.26900446519395</v>
       </c>
       <c r="B10" t="n">
-        <v>14.9981711378607</v>
+        <v>10.5675769212456</v>
       </c>
       <c r="C10" t="n">
-        <v>74.5918719570777</v>
+        <v>52.5567642454943</v>
       </c>
       <c r="D10" t="n">
-        <v>110.574727328444</v>
+        <v>77.9099615445354</v>
       </c>
       <c r="E10" t="n">
-        <v>47.9443290619698</v>
+        <v>33.7811444237291</v>
       </c>
       <c r="F10" t="n">
-        <v>35.5291220047655</v>
+        <v>25.0335008367716</v>
       </c>
       <c r="G10" t="n">
-        <v>30.2002991253184</v>
+        <v>21.2788600101913</v>
       </c>
       <c r="H10" t="n">
-        <v>27.2322481720262</v>
+        <v>19.1875979178475</v>
       </c>
     </row>
     <row r="11">
